--- a/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
+++ b/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
@@ -704,7 +704,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1010"/>
+  <dimension ref="A1:AP1011"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="58">
       <c r="A5" s="69" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1070,21 +1070,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>335.7</v>
+        <v>349.6</v>
       </c>
       <c r="F5" t="n">
-        <v>3380.79</v>
+        <v>3520.82</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="I5" t="n">
-        <v>20.43</v>
+        <v>21.33</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1092,8 +1092,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="58">
-      <c r="A6" s="56" t="n">
-        <v>46059</v>
+      <c r="A6" s="69" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1109,15 +1109,21 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>335.76</v>
+        <v>335.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3357.6</v>
+        <v>3380.79</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20.43</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1125,8 +1131,8 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="58">
-      <c r="A7" s="55" t="n">
-        <v>46057</v>
+      <c r="A7" s="56" t="n">
+        <v>46059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1142,26 +1148,24 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>339.9</v>
+        <v>335.76</v>
       </c>
       <c r="F7" t="n">
-        <v>3423.11</v>
+        <v>3357.6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20.7</v>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="58">
       <c r="A8" s="55" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1177,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>339.1</v>
+        <v>339.9</v>
       </c>
       <c r="F8" t="n">
-        <v>3415.11</v>
+        <v>3423.11</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1196,7 +1200,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="58">
       <c r="A9" s="55" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1212,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>337.8</v>
+        <v>339.1</v>
       </c>
       <c r="F9" t="n">
-        <v>3401.96</v>
+        <v>3415.11</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1223,15 +1227,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="I9" t="n">
-        <v>20.58</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="58">
       <c r="A10" s="55" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1244,13 +1248,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>356.85</v>
+        <v>337.8</v>
       </c>
       <c r="F10" t="n">
-        <v>359.37</v>
+        <v>3401.96</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1258,10 +1262,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.36</v>
+        <v>3.38</v>
       </c>
       <c r="I10" t="n">
-        <v>2.16</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="58">
@@ -1279,13 +1283,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>356.85</v>
       </c>
       <c r="F11" t="n">
-        <v>3953.11</v>
+        <v>359.37</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1293,10 +1297,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.94</v>
+        <v>0.36</v>
       </c>
       <c r="I11" t="n">
-        <v>23.82</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="58">
@@ -1314,13 +1318,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>356.85</v>
       </c>
       <c r="F12" t="n">
-        <v>718.74</v>
+        <v>3953.11</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1328,10 +1332,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.71</v>
+        <v>3.94</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="58">
@@ -1384,13 +1388,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>356.85</v>
       </c>
       <c r="F14" t="n">
-        <v>359.37</v>
+        <v>718.74</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1398,10 +1402,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="I14" t="n">
-        <v>2.16</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="58">
@@ -1419,13 +1423,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>356.85</v>
       </c>
       <c r="F15" t="n">
-        <v>1078.11</v>
+        <v>359.37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1433,15 +1437,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.07</v>
+        <v>0.36</v>
       </c>
       <c r="I15" t="n">
-        <v>6.49</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="58">
       <c r="A16" s="55" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1454,13 +1458,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>379.65</v>
+        <v>356.85</v>
       </c>
       <c r="F16" t="n">
-        <v>3823.41</v>
+        <v>1078.11</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1468,15 +1472,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3.78</v>
+        <v>1.07</v>
       </c>
       <c r="I16" t="n">
-        <v>23.13</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="58">
       <c r="A17" s="55" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1489,13 +1493,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>388.6</v>
+        <v>379.65</v>
       </c>
       <c r="F17" t="n">
-        <v>391.34</v>
+        <v>3823.41</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1503,10 +1507,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.39</v>
+        <v>3.78</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="58">
@@ -1524,13 +1528,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>388.6</v>
       </c>
       <c r="F18" t="n">
-        <v>3522.15</v>
+        <v>391.34</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1538,15 +1542,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3.49</v>
+        <v>0.39</v>
       </c>
       <c r="I18" t="n">
-        <v>21.26</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="58">
       <c r="A19" s="55" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1559,13 +1563,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>391.25</v>
+        <v>388.6</v>
       </c>
       <c r="F19" t="n">
-        <v>2364.2</v>
+        <v>3522.15</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1573,10 +1577,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.34</v>
+        <v>3.49</v>
       </c>
       <c r="I19" t="n">
-        <v>14.36</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="58">
@@ -1594,13 +1598,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>391.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1576.13</v>
+        <v>2364.2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1608,19 +1612,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.55</v>
+        <v>2.34</v>
       </c>
       <c r="I20" t="n">
-        <v>9.58</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="58">
       <c r="A21" s="55" t="n">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1629,13 +1633,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>390</v>
+        <v>391.25</v>
       </c>
       <c r="F21" t="n">
-        <v>3927.66</v>
+        <v>1576.13</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1643,19 +1647,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.88</v>
+        <v>1.55</v>
       </c>
       <c r="I21" t="n">
-        <v>23.78</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="58">
       <c r="A22" s="55" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1667,10 +1671,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>385.8</v>
+        <v>390</v>
       </c>
       <c r="F22" t="n">
-        <v>3885.39</v>
+        <v>3927.66</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1681,16 +1685,16 @@
         <v>3.88</v>
       </c>
       <c r="I22" t="n">
-        <v>23.51</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="58">
       <c r="A23" s="55" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1699,13 +1703,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>390.7</v>
+        <v>385.8</v>
       </c>
       <c r="F23" t="n">
-        <v>7869.39</v>
+        <v>3885.39</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1713,15 +1717,15 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.84</v>
+        <v>3.88</v>
       </c>
       <c r="I23" t="n">
-        <v>47.55</v>
+        <v>23.51</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="58">
       <c r="A24" s="55" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1734,13 +1738,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>386.65</v>
+        <v>390.7</v>
       </c>
       <c r="F24" t="n">
-        <v>3893.88</v>
+        <v>7869.39</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1748,15 +1752,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>7.84</v>
       </c>
       <c r="I24" t="n">
-        <v>23.53</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="58">
       <c r="A25" s="55" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1772,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>382</v>
+        <v>386.65</v>
       </c>
       <c r="F25" t="n">
-        <v>3847.06</v>
+        <v>3893.88</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1783,15 +1787,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>23.26</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="58">
       <c r="A26" s="55" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1807,10 +1811,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F26" t="n">
-        <v>3857.22</v>
+        <v>3847.06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1818,19 +1822,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>23.38</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="58">
       <c r="A27" s="55" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1839,13 +1843,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>396.15</v>
+        <v>383</v>
       </c>
       <c r="F27" t="n">
-        <v>398.96</v>
+        <v>3857.22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1853,10 +1857,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.4</v>
+        <v>3.84</v>
       </c>
       <c r="I27" t="n">
-        <v>2.41</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="58">
@@ -1874,13 +1878,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>396.15</v>
       </c>
       <c r="F28" t="n">
-        <v>3590.59</v>
+        <v>398.96</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1888,15 +1892,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="n">
-        <v>21.69</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="58">
       <c r="A29" s="55" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1909,13 +1913,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>396.45</v>
+        <v>396.15</v>
       </c>
       <c r="F29" t="n">
-        <v>7985.14</v>
+        <v>3590.59</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1923,19 +1927,19 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7.96</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>48.18</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="58">
       <c r="A30" s="55" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1944,13 +1948,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>399.05</v>
+        <v>396.45</v>
       </c>
       <c r="F30" t="n">
-        <v>4018.86</v>
+        <v>7985.14</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1958,15 +1962,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.97</v>
+        <v>7.96</v>
       </c>
       <c r="I30" t="n">
-        <v>24.39</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="58">
       <c r="A31" s="55" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1982,10 +1986,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>411.5</v>
+        <v>399.05</v>
       </c>
       <c r="F31" t="n">
-        <v>4144.22</v>
+        <v>4018.86</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1993,19 +1997,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4.15</v>
+        <v>3.97</v>
       </c>
       <c r="I31" t="n">
-        <v>25.07</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="58">
       <c r="A32" s="55" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2014,13 +2018,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>402.25</v>
+        <v>411.5</v>
       </c>
       <c r="F32" t="n">
-        <v>405.09</v>
+        <v>4144.22</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2028,10 +2032,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
+        <v>4.15</v>
       </c>
       <c r="I32" t="n">
-        <v>2.44</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="58">
@@ -2049,13 +2053,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>402.3</v>
+        <v>402.25</v>
       </c>
       <c r="F33" t="n">
-        <v>3646.35</v>
+        <v>405.09</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2063,15 +2067,15 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3.61</v>
+        <v>0.4</v>
       </c>
       <c r="I33" t="n">
-        <v>22.04</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="58">
       <c r="A34" s="55" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2084,13 +2088,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>405.75</v>
+        <v>402.3</v>
       </c>
       <c r="F34" t="n">
-        <v>4086.26</v>
+        <v>3646.35</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2098,19 +2102,19 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4.04</v>
+        <v>3.61</v>
       </c>
       <c r="I34" t="n">
-        <v>24.72</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="58">
       <c r="A35" s="55" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2119,13 +2123,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>395.7</v>
+        <v>405.75</v>
       </c>
       <c r="F35" t="n">
-        <v>7970.18</v>
+        <v>4086.26</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2133,19 +2137,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7.91</v>
+        <v>4.04</v>
       </c>
       <c r="I35" t="n">
-        <v>48.27</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="58">
       <c r="A36" s="55" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2157,10 +2161,10 @@
         <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>400.85</v>
+        <v>395.7</v>
       </c>
       <c r="F36" t="n">
-        <v>8073.73</v>
+        <v>7970.18</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2168,15 +2172,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7.97</v>
+        <v>7.91</v>
       </c>
       <c r="I36" t="n">
-        <v>48.76</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="58">
       <c r="A37" s="55" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2192,10 +2196,10 @@
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>408</v>
+        <v>400.85</v>
       </c>
       <c r="F37" t="n">
-        <v>8217.82</v>
+        <v>8073.73</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2203,15 +2207,15 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8.19</v>
+        <v>7.97</v>
       </c>
       <c r="I37" t="n">
-        <v>49.63</v>
+        <v>48.76</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="58">
       <c r="A38" s="55" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2224,13 +2228,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>408.1</v>
+        <v>408</v>
       </c>
       <c r="F38" t="n">
-        <v>4109.91</v>
+        <v>8217.82</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2238,15 +2242,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4.09</v>
+        <v>8.19</v>
       </c>
       <c r="I38" t="n">
-        <v>24.82</v>
+        <v>49.63</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="58">
       <c r="A39" s="55" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2259,13 +2263,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>410.45</v>
+        <v>408.1</v>
       </c>
       <c r="F39" t="n">
-        <v>8267.139999999999</v>
+        <v>4109.91</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2273,15 +2277,15 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8.18</v>
+        <v>4.09</v>
       </c>
       <c r="I39" t="n">
-        <v>49.96</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="58">
       <c r="A40" s="55" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2294,13 +2298,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>414.85</v>
+        <v>410.45</v>
       </c>
       <c r="F40" t="n">
-        <v>4177.83</v>
+        <v>8267.139999999999</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2308,15 +2312,15 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4.12</v>
+        <v>8.18</v>
       </c>
       <c r="I40" t="n">
-        <v>25.21</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="58">
       <c r="A41" s="55" t="n">
-        <v>45959</v>
+        <v>45972</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2332,10 +2336,10 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>454.75</v>
+        <v>414.85</v>
       </c>
       <c r="F41" t="n">
-        <v>4579.65</v>
+        <v>4177.83</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2343,15 +2347,15 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4.54</v>
+        <v>4.12</v>
       </c>
       <c r="I41" t="n">
-        <v>27.61</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="58">
       <c r="A42" s="55" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2367,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>440.65</v>
+        <v>454.75</v>
       </c>
       <c r="F42" t="n">
-        <v>4437.7</v>
+        <v>4579.65</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2378,19 +2382,19 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="I42" t="n">
-        <v>26.78</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="58">
       <c r="A43" s="55" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2399,13 +2403,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>444.2</v>
+        <v>440.65</v>
       </c>
       <c r="F43" t="n">
-        <v>3131.46</v>
+        <v>4437.7</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2413,10 +2417,10 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3.11</v>
+        <v>4.42</v>
       </c>
       <c r="I43" t="n">
-        <v>18.95</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="58">
@@ -2434,13 +2438,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>444.25</v>
+        <v>444.2</v>
       </c>
       <c r="F44" t="n">
-        <v>1342.19</v>
+        <v>3131.46</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2448,15 +2452,15 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.33</v>
+        <v>3.11</v>
       </c>
       <c r="I44" t="n">
-        <v>8.109999999999999</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="58">
       <c r="A45" s="55" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2469,13 +2473,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2</v>
+        <v>444.25</v>
       </c>
       <c r="F45" t="n">
-        <v>4473.53</v>
+        <v>1342.19</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2483,19 +2487,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4.44</v>
+        <v>1.33</v>
       </c>
       <c r="I45" t="n">
-        <v>27.09</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="58">
       <c r="A46" s="55" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2504,13 +2508,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>451.95</v>
+        <v>444.2</v>
       </c>
       <c r="F46" t="n">
-        <v>5917</v>
+        <v>4473.53</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2518,112 +2522,46 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5.89</v>
+        <v>4.44</v>
       </c>
       <c r="I46" t="n">
-        <v>35.76</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="58">
-      <c r="A47" s="25" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B47" s="26" t="inlineStr">
+      <c r="A47" s="55" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C47" s="26" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D47" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="E47" s="28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F47" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="G47" s="26" t="inlineStr">
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="E47" t="n">
+        <v>451.95</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5917</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H47" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K47" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="L47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="P47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
-        <v/>
-      </c>
-      <c r="R47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="S47" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="T47" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="U47" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
-        <v/>
-      </c>
-      <c r="V47" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="34" t="n"/>
-      <c r="X47" s="34" t="n"/>
-      <c r="Y47" s="33">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="34" t="n"/>
-      <c r="AA47" s="34" t="n"/>
-      <c r="AB47" s="35" t="n"/>
-      <c r="AC47" s="31">
-        <f>IF(B11="DIV", F11,"")</f>
-        <v/>
-      </c>
-      <c r="AD47" s="36" t="n"/>
+      <c r="H47" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="I47" t="n">
+        <v>35.76</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="58">
       <c r="A48" s="25" t="n">
@@ -2640,13 +2578,13 @@
         </is>
       </c>
       <c r="D48" s="27" t="n">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E48" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="F48" s="28" t="n">
-        <v>267.5</v>
+        <v>50</v>
       </c>
       <c r="G48" s="26" t="inlineStr">
         <is>
@@ -2664,75 +2602,75 @@
         <v/>
       </c>
       <c r="K48" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N48" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O48" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S48" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T48" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U48" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V48" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W48" s="34" t="n"/>
       <c r="X48" s="34" t="n"/>
       <c r="Y48" s="33">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z48" s="34" t="n"/>
       <c r="AA48" s="34" t="n"/>
       <c r="AB48" s="35" t="n"/>
       <c r="AC48" s="31">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD48" s="36" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="58">
       <c r="A49" s="25" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B49" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C49" s="26" t="inlineStr">
@@ -2741,97 +2679,99 @@
         </is>
       </c>
       <c r="D49" s="27" t="n">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E49" s="28" t="n">
-        <v>422.53</v>
+        <v>2.5</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>8450.59</v>
+        <v>267.5</v>
       </c>
       <c r="G49" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
         </is>
       </c>
       <c r="H49" s="27" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="I49" s="27" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N49" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O49" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S49" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T49" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U49" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V49" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W49" s="34" t="n"/>
       <c r="X49" s="34" t="n"/>
       <c r="Y49" s="33">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z49" s="34" t="n"/>
       <c r="AA49" s="34" t="n"/>
       <c r="AB49" s="35" t="n"/>
       <c r="AC49" s="31">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD49" s="36" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="58">
       <c r="A50" s="25" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B50" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C50" s="26" t="inlineStr">
@@ -2840,13 +2780,13 @@
         </is>
       </c>
       <c r="D50" s="27" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E50" s="28" t="n">
-        <v>424.44</v>
+        <v>422.53</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>16128.6</v>
+        <v>8450.59</v>
       </c>
       <c r="G50" s="26" t="inlineStr">
         <is>
@@ -2854,7 +2794,7 @@
         </is>
       </c>
       <c r="H50" s="27" t="n">
-        <v>15.98</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I50" s="27" t="n"/>
       <c r="J50" s="29">
@@ -2862,64 +2802,64 @@
         <v/>
       </c>
       <c r="K50" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N50" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O50" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S50" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T50" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U50" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V50" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W50" s="34" t="n"/>
       <c r="X50" s="34" t="n"/>
       <c r="Y50" s="33">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z50" s="34" t="n"/>
       <c r="AA50" s="34" t="n"/>
       <c r="AB50" s="35" t="n"/>
       <c r="AC50" s="31">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD50" s="36" t="n"/>
@@ -2939,13 +2879,13 @@
         </is>
       </c>
       <c r="D51" s="27" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E51" s="28" t="n">
         <v>424.44</v>
       </c>
       <c r="F51" s="28" t="n">
-        <v>848.88</v>
+        <v>16128.6</v>
       </c>
       <c r="G51" s="26" t="inlineStr">
         <is>
@@ -2953,7 +2893,7 @@
         </is>
       </c>
       <c r="H51" s="27" t="n">
-        <v>0.84</v>
+        <v>15.98</v>
       </c>
       <c r="I51" s="27" t="n"/>
       <c r="J51" s="29">
@@ -2961,71 +2901,71 @@
         <v/>
       </c>
       <c r="K51" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N51" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O51" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S51" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T51" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U51" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V51" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W51" s="34" t="n"/>
       <c r="X51" s="34" t="n"/>
       <c r="Y51" s="33">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z51" s="34" t="n"/>
       <c r="AA51" s="34" t="n"/>
       <c r="AB51" s="35" t="n"/>
       <c r="AC51" s="31">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD51" s="36" t="n"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="58">
       <c r="A52" s="25" t="n">
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="B52" s="26" t="inlineStr">
         <is>
@@ -3038,13 +2978,13 @@
         </is>
       </c>
       <c r="D52" s="27" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E52" s="28" t="n">
-        <v>435.86</v>
+        <v>424.44</v>
       </c>
       <c r="F52" s="28" t="n">
-        <v>11332.31</v>
+        <v>848.88</v>
       </c>
       <c r="G52" s="26" t="inlineStr">
         <is>
@@ -3052,7 +2992,7 @@
         </is>
       </c>
       <c r="H52" s="27" t="n">
-        <v>11.23</v>
+        <v>0.84</v>
       </c>
       <c r="I52" s="27" t="n"/>
       <c r="J52" s="29">
@@ -3060,64 +3000,64 @@
         <v/>
       </c>
       <c r="K52" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N52" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O52" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S52" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T52" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U52" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V52" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W52" s="34" t="n"/>
       <c r="X52" s="34" t="n"/>
       <c r="Y52" s="33">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z52" s="34" t="n"/>
       <c r="AA52" s="34" t="n"/>
       <c r="AB52" s="35" t="n"/>
       <c r="AC52" s="31">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD52" s="36" t="n"/>
@@ -3137,13 +3077,13 @@
         </is>
       </c>
       <c r="D53" s="27" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E53" s="28" t="n">
-        <v>435.81</v>
+        <v>435.86</v>
       </c>
       <c r="F53" s="28" t="n">
-        <v>871.62</v>
+        <v>11332.31</v>
       </c>
       <c r="G53" s="26" t="inlineStr">
         <is>
@@ -3151,7 +3091,7 @@
         </is>
       </c>
       <c r="H53" s="27" t="n">
-        <v>0.87</v>
+        <v>11.23</v>
       </c>
       <c r="I53" s="27" t="n"/>
       <c r="J53" s="29">
@@ -3159,64 +3099,64 @@
         <v/>
       </c>
       <c r="K53" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N53" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O53" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S53" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T53" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U53" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V53" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W53" s="34" t="n"/>
       <c r="X53" s="34" t="n"/>
       <c r="Y53" s="33">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z53" s="34" t="n"/>
       <c r="AA53" s="34" t="n"/>
       <c r="AB53" s="35" t="n"/>
       <c r="AC53" s="31">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD53" s="36" t="n"/>
@@ -3258,71 +3198,71 @@
         <v/>
       </c>
       <c r="K54" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N54" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O54" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S54" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T54" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U54" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V54" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W54" s="34" t="n"/>
       <c r="X54" s="34" t="n"/>
       <c r="Y54" s="33">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z54" s="34" t="n"/>
       <c r="AA54" s="34" t="n"/>
       <c r="AB54" s="35" t="n"/>
       <c r="AC54" s="31">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD54" s="36" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="58">
       <c r="A55" s="25" t="n">
-        <v>45821</v>
+        <v>45842</v>
       </c>
       <c r="B55" s="26" t="inlineStr">
         <is>
@@ -3335,13 +3275,13 @@
         </is>
       </c>
       <c r="D55" s="27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E55" s="28" t="n">
-        <v>441.31</v>
+        <v>435.81</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>3089.19</v>
+        <v>871.62</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
@@ -3349,7 +3289,7 @@
         </is>
       </c>
       <c r="H55" s="27" t="n">
-        <v>3.08</v>
+        <v>0.87</v>
       </c>
       <c r="I55" s="27" t="n"/>
       <c r="J55" s="29">
@@ -3357,71 +3297,71 @@
         <v/>
       </c>
       <c r="K55" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L55" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M55" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N55" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O55" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P55" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R55" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S55" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T55" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U55" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V55" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W55" s="34" t="n"/>
       <c r="X55" s="34" t="n"/>
       <c r="Y55" s="33">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z55" s="34" t="n"/>
       <c r="AA55" s="34" t="n"/>
       <c r="AB55" s="35" t="n"/>
       <c r="AC55" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD55" s="36" t="n"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="58">
       <c r="A56" s="25" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B56" s="26" t="inlineStr">
         <is>
@@ -3434,13 +3374,13 @@
         </is>
       </c>
       <c r="D56" s="27" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>454.8</v>
+        <v>441.31</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>11370.03</v>
+        <v>3089.19</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
@@ -3448,7 +3388,7 @@
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>11.27</v>
+        <v>3.08</v>
       </c>
       <c r="I56" s="27" t="n"/>
       <c r="J56" s="29">
@@ -3456,64 +3396,64 @@
         <v/>
       </c>
       <c r="K56" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L56" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M56" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N56" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O56" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P56" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R56" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S56" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T56" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U56" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V56" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W56" s="34" t="n"/>
       <c r="X56" s="34" t="n"/>
       <c r="Y56" s="33">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z56" s="34" t="n"/>
       <c r="AA56" s="34" t="n"/>
       <c r="AB56" s="35" t="n"/>
       <c r="AC56" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD56" s="36" t="n"/>
@@ -3533,13 +3473,13 @@
         </is>
       </c>
       <c r="D57" s="27" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E57" s="28" t="n">
         <v>454.8</v>
       </c>
       <c r="F57" s="28" t="n">
-        <v>2274.02</v>
+        <v>11370.03</v>
       </c>
       <c r="G57" s="26" t="inlineStr">
         <is>
@@ -3547,7 +3487,7 @@
         </is>
       </c>
       <c r="H57" s="27" t="n">
-        <v>2.26</v>
+        <v>11.27</v>
       </c>
       <c r="I57" s="27" t="n"/>
       <c r="J57" s="29">
@@ -3555,83 +3495,166 @@
         <v/>
       </c>
       <c r="K57" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L57" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M57" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N57" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O57" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P57" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R57" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S57" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T57" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U57" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V57" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W57" s="34" t="n"/>
       <c r="X57" s="34" t="n"/>
       <c r="Y57" s="33">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z57" s="34" t="n"/>
       <c r="AA57" s="34" t="n"/>
       <c r="AB57" s="35" t="n"/>
       <c r="AC57" s="31">
+        <f>IF(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD57" s="36" t="n"/>
+    </row>
+    <row r="58" ht="13" customHeight="1" s="58">
+      <c r="A58" s="25" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B58" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C58" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D58" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" s="28" t="n">
+        <v>454.8</v>
+      </c>
+      <c r="F58" s="28" t="n">
+        <v>2274.02</v>
+      </c>
+      <c r="G58" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H58" s="27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I58" s="27" t="n"/>
+      <c r="J58" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K58" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="32">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="33">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="34" t="n"/>
+      <c r="X58" s="34" t="n"/>
+      <c r="Y58" s="33">
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="34" t="n"/>
+      <c r="AA58" s="34" t="n"/>
+      <c r="AB58" s="35" t="n"/>
+      <c r="AC58" s="31">
         <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
-      <c r="AD57" s="36" t="n"/>
-    </row>
-    <row r="58" ht="13" customHeight="1" s="58">
-      <c r="E58" s="37" t="n"/>
-      <c r="F58" s="37" t="n"/>
-      <c r="G58" s="38" t="n"/>
-      <c r="J58" s="37" t="n"/>
-      <c r="K58" s="37" t="n"/>
-      <c r="L58" s="37" t="n"/>
-      <c r="M58" s="1" t="n"/>
-      <c r="W58" s="37" t="n"/>
-      <c r="X58" s="37" t="n"/>
-      <c r="Y58" s="37" t="n"/>
-      <c r="Z58" s="37" t="n"/>
-      <c r="AA58" s="37" t="n"/>
-      <c r="AB58" s="37" t="n"/>
-      <c r="AC58" s="37" t="n"/>
+      <c r="AD58" s="36" t="n"/>
     </row>
     <row r="59" ht="13" customHeight="1" s="58">
       <c r="E59" s="37" t="n"/>
@@ -18600,6 +18623,7 @@
       <c r="J994" s="37" t="n"/>
       <c r="K994" s="37" t="n"/>
       <c r="L994" s="37" t="n"/>
+      <c r="M994" s="1" t="n"/>
       <c r="W994" s="37" t="n"/>
       <c r="X994" s="37" t="n"/>
       <c r="Y994" s="37" t="n"/>
@@ -18847,6 +18871,21 @@
       <c r="AA1010" s="37" t="n"/>
       <c r="AB1010" s="37" t="n"/>
       <c r="AC1010" s="37" t="n"/>
+    </row>
+    <row r="1011">
+      <c r="E1011" s="37" t="n"/>
+      <c r="F1011" s="37" t="n"/>
+      <c r="G1011" s="38" t="n"/>
+      <c r="J1011" s="37" t="n"/>
+      <c r="K1011" s="37" t="n"/>
+      <c r="L1011" s="37" t="n"/>
+      <c r="W1011" s="37" t="n"/>
+      <c r="X1011" s="37" t="n"/>
+      <c r="Y1011" s="37" t="n"/>
+      <c r="Z1011" s="37" t="n"/>
+      <c r="AA1011" s="37" t="n"/>
+      <c r="AB1011" s="37" t="n"/>
+      <c r="AC1011" s="37" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO45"/>

--- a/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
+++ b/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
@@ -704,7 +704,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1011"/>
+  <dimension ref="A1:AP1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="58">
       <c r="A5" s="69" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1070,21 +1070,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>349.6</v>
+        <v>333.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3520.82</v>
+        <v>3350.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3.49</v>
-      </c>
       <c r="I5" t="n">
-        <v>21.33</v>
+        <v>16.7</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="58">
       <c r="A6" s="69" t="n">
-        <v>46062</v>
+        <v>46034</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1106,24 +1103,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>335.7</v>
+        <v>356.85</v>
       </c>
       <c r="F6" t="n">
-        <v>3380.79</v>
+        <v>7172.6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>3.36</v>
-      </c>
       <c r="I6" t="n">
-        <v>20.43</v>
+        <v>35.6</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1131,8 +1125,8 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="58">
-      <c r="A7" s="56" t="n">
-        <v>46059</v>
+      <c r="A7" s="69" t="n">
+        <v>46027</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1148,15 +1142,18 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>335.76</v>
+        <v>388.6</v>
       </c>
       <c r="F7" t="n">
-        <v>3357.6</v>
+        <v>3905.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252610159828</t>
         </is>
+      </c>
+      <c r="I7" t="n">
+        <v>19.4</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1164,8 +1161,8 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="58">
-      <c r="A8" s="55" t="n">
-        <v>46057</v>
+      <c r="A8" s="69" t="n">
+        <v>46024</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1181,26 +1178,27 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>339.9</v>
+        <v>391.25</v>
       </c>
       <c r="F8" t="n">
-        <v>3423.11</v>
+        <v>3932.1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252610092927</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>3.41</v>
-      </c>
       <c r="I8" t="n">
-        <v>20.7</v>
+        <v>19.6</v>
+      </c>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="58">
-      <c r="A9" s="55" t="n">
-        <v>46050</v>
+      <c r="A9" s="69" t="n">
+        <v>46007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1216,26 +1214,27 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>339.1</v>
+        <v>396.15</v>
       </c>
       <c r="F9" t="n">
-        <v>3415.11</v>
+        <v>3981.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>3.41</v>
-      </c>
       <c r="I9" t="n">
-        <v>20.7</v>
+        <v>19.8</v>
+      </c>
+      <c r="J9">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="58">
-      <c r="A10" s="55" t="n">
-        <v>46049</v>
+      <c r="A10" s="69" t="n">
+        <v>45989</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1251,26 +1250,27 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>337.8</v>
+        <v>402.295</v>
       </c>
       <c r="F10" t="n">
-        <v>3401.96</v>
+        <v>4043.05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>3.38</v>
-      </c>
       <c r="I10" t="n">
-        <v>20.58</v>
+        <v>20.1</v>
+      </c>
+      <c r="J10">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="58">
-      <c r="A11" s="55" t="n">
-        <v>46034</v>
+      <c r="A11" s="69" t="n">
+        <v>46063</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1283,29 +1283,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>356.85</v>
+        <v>349.6</v>
       </c>
       <c r="F11" t="n">
-        <v>359.37</v>
+        <v>3520.82</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.36</v>
+        <v>3.49</v>
       </c>
       <c r="I11" t="n">
-        <v>2.16</v>
+        <v>21.33</v>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="58">
-      <c r="A12" s="55" t="n">
-        <v>46034</v>
+      <c r="A12" s="69" t="n">
+        <v>46062</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1318,29 +1322,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>356.85</v>
+        <v>335.7</v>
       </c>
       <c r="F12" t="n">
-        <v>3953.11</v>
+        <v>3380.79</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="I12" t="n">
-        <v>23.82</v>
+        <v>20.43</v>
+      </c>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="58">
-      <c r="A13" s="55" t="n">
-        <v>46034</v>
+      <c r="A13" s="56" t="n">
+        <v>46059</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1353,29 +1361,27 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>356.85</v>
+        <v>335.76</v>
       </c>
       <c r="F13" t="n">
-        <v>718.74</v>
+        <v>3357.6</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.33</v>
+      <c r="J13">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="58">
       <c r="A14" s="55" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1388,13 +1394,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>356.85</v>
+        <v>339.9</v>
       </c>
       <c r="F14" t="n">
-        <v>718.74</v>
+        <v>3423.11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1402,15 +1408,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.71</v>
+        <v>3.41</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="58">
       <c r="A15" s="55" t="n">
-        <v>46034</v>
+        <v>46050</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1423,13 +1429,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>356.85</v>
+        <v>339.1</v>
       </c>
       <c r="F15" t="n">
-        <v>359.37</v>
+        <v>3415.11</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1437,15 +1443,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.36</v>
+        <v>3.41</v>
       </c>
       <c r="I15" t="n">
-        <v>2.16</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="58">
       <c r="A16" s="55" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1458,13 +1464,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>356.85</v>
+        <v>337.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1078.11</v>
+        <v>3401.96</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1472,15 +1478,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.07</v>
+        <v>3.38</v>
       </c>
       <c r="I16" t="n">
-        <v>6.49</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="58">
       <c r="A17" s="55" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1493,13 +1499,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>379.65</v>
+        <v>356.85</v>
       </c>
       <c r="F17" t="n">
-        <v>3823.41</v>
+        <v>359.37</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1507,15 +1513,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.78</v>
+        <v>0.36</v>
       </c>
       <c r="I17" t="n">
-        <v>23.13</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="58">
       <c r="A18" s="55" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1528,13 +1534,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>388.6</v>
+        <v>356.85</v>
       </c>
       <c r="F18" t="n">
-        <v>391.34</v>
+        <v>3953.11</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1542,15 +1548,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="I18" t="n">
-        <v>2.35</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="58">
       <c r="A19" s="55" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1563,13 +1569,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>388.6</v>
+        <v>356.85</v>
       </c>
       <c r="F19" t="n">
-        <v>3522.15</v>
+        <v>718.74</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1577,15 +1583,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.49</v>
+        <v>0.71</v>
       </c>
       <c r="I19" t="n">
-        <v>21.26</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="58">
       <c r="A20" s="55" t="n">
-        <v>46024</v>
+        <v>46034</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1598,13 +1604,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>391.25</v>
+        <v>356.85</v>
       </c>
       <c r="F20" t="n">
-        <v>2364.2</v>
+        <v>718.74</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1612,15 +1618,15 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>0.71</v>
       </c>
       <c r="I20" t="n">
-        <v>14.36</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="58">
       <c r="A21" s="55" t="n">
-        <v>46024</v>
+        <v>46034</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1633,13 +1639,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>391.25</v>
+        <v>356.85</v>
       </c>
       <c r="F21" t="n">
-        <v>1576.13</v>
+        <v>359.37</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1647,19 +1653,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.55</v>
+        <v>0.36</v>
       </c>
       <c r="I21" t="n">
-        <v>9.58</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="58">
       <c r="A22" s="55" t="n">
-        <v>46022</v>
+        <v>46034</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1668,13 +1674,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>390</v>
+        <v>356.85</v>
       </c>
       <c r="F22" t="n">
-        <v>3927.66</v>
+        <v>1078.11</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1682,15 +1688,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.88</v>
+        <v>1.07</v>
       </c>
       <c r="I22" t="n">
-        <v>23.78</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="58">
       <c r="A23" s="55" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1706,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>385.8</v>
+        <v>379.65</v>
       </c>
       <c r="F23" t="n">
-        <v>3885.39</v>
+        <v>3823.41</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1717,19 +1723,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.88</v>
+        <v>3.78</v>
       </c>
       <c r="I23" t="n">
-        <v>23.51</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="58">
       <c r="A24" s="55" t="n">
-        <v>46017</v>
+        <v>46027</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1738,13 +1744,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>390.7</v>
+        <v>388.6</v>
       </c>
       <c r="F24" t="n">
-        <v>7869.39</v>
+        <v>391.34</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1752,19 +1758,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7.84</v>
+        <v>0.39</v>
       </c>
       <c r="I24" t="n">
-        <v>47.55</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="58">
       <c r="A25" s="55" t="n">
-        <v>46015</v>
+        <v>46027</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1773,13 +1779,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>386.65</v>
+        <v>388.6</v>
       </c>
       <c r="F25" t="n">
-        <v>3893.88</v>
+        <v>3522.15</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1787,19 +1793,19 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.85</v>
+        <v>3.49</v>
       </c>
       <c r="I25" t="n">
-        <v>23.53</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="58">
       <c r="A26" s="55" t="n">
-        <v>46014</v>
+        <v>46024</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1808,13 +1814,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>382</v>
+        <v>391.25</v>
       </c>
       <c r="F26" t="n">
-        <v>3847.06</v>
+        <v>2364.2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1822,19 +1828,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>2.34</v>
       </c>
       <c r="I26" t="n">
-        <v>23.26</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="58">
       <c r="A27" s="55" t="n">
-        <v>46009</v>
+        <v>46024</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1843,13 +1849,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>383</v>
+        <v>391.25</v>
       </c>
       <c r="F27" t="n">
-        <v>3857.22</v>
+        <v>1576.13</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1857,19 +1863,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3.84</v>
+        <v>1.55</v>
       </c>
       <c r="I27" t="n">
-        <v>23.38</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="58">
       <c r="A28" s="55" t="n">
-        <v>46007</v>
+        <v>46022</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1878,13 +1884,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>396.15</v>
+        <v>390</v>
       </c>
       <c r="F28" t="n">
-        <v>398.96</v>
+        <v>3927.66</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1892,15 +1898,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.4</v>
+        <v>3.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.41</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="58">
       <c r="A29" s="55" t="n">
-        <v>46007</v>
+        <v>46020</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1913,13 +1919,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>396.15</v>
+        <v>385.8</v>
       </c>
       <c r="F29" t="n">
-        <v>3590.59</v>
+        <v>3885.39</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1927,19 +1933,19 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.88</v>
       </c>
       <c r="I29" t="n">
-        <v>21.69</v>
+        <v>23.51</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="58">
       <c r="A30" s="55" t="n">
-        <v>46002</v>
+        <v>46017</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1951,10 +1957,10 @@
         <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>396.45</v>
+        <v>390.7</v>
       </c>
       <c r="F30" t="n">
-        <v>7985.14</v>
+        <v>7869.39</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1962,15 +1968,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7.96</v>
+        <v>7.84</v>
       </c>
       <c r="I30" t="n">
-        <v>48.18</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="58">
       <c r="A31" s="55" t="n">
-        <v>45996</v>
+        <v>46015</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1986,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>399.05</v>
+        <v>386.65</v>
       </c>
       <c r="F31" t="n">
-        <v>4018.86</v>
+        <v>3893.88</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1997,15 +2003,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.97</v>
+        <v>3.85</v>
       </c>
       <c r="I31" t="n">
-        <v>24.39</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="58">
       <c r="A32" s="55" t="n">
-        <v>45993</v>
+        <v>46014</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2021,10 +2027,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>411.5</v>
+        <v>382</v>
       </c>
       <c r="F32" t="n">
-        <v>4144.22</v>
+        <v>3847.06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2032,19 +2038,19 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>25.07</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="58">
       <c r="A33" s="55" t="n">
-        <v>45989</v>
+        <v>46009</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2053,13 +2059,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>402.25</v>
+        <v>383</v>
       </c>
       <c r="F33" t="n">
-        <v>405.09</v>
+        <v>3857.22</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2067,15 +2073,15 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.4</v>
+        <v>3.84</v>
       </c>
       <c r="I33" t="n">
-        <v>2.44</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="58">
       <c r="A34" s="55" t="n">
-        <v>45989</v>
+        <v>46007</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2088,13 +2094,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>402.3</v>
+        <v>396.15</v>
       </c>
       <c r="F34" t="n">
-        <v>3646.35</v>
+        <v>398.96</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2102,15 +2108,15 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.61</v>
+        <v>0.4</v>
       </c>
       <c r="I34" t="n">
-        <v>22.04</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="58">
       <c r="A35" s="55" t="n">
-        <v>45988</v>
+        <v>46007</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2123,13 +2129,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>405.75</v>
+        <v>396.15</v>
       </c>
       <c r="F35" t="n">
-        <v>4086.26</v>
+        <v>3590.59</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2137,19 +2143,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4.04</v>
+        <v>3.55</v>
       </c>
       <c r="I35" t="n">
-        <v>24.72</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="58">
       <c r="A36" s="55" t="n">
-        <v>45982</v>
+        <v>46002</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2161,10 +2167,10 @@
         <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>395.7</v>
+        <v>396.45</v>
       </c>
       <c r="F36" t="n">
-        <v>7970.18</v>
+        <v>7985.14</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2172,19 +2178,19 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7.91</v>
+        <v>7.96</v>
       </c>
       <c r="I36" t="n">
-        <v>48.27</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="58">
       <c r="A37" s="55" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2193,13 +2199,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>400.85</v>
+        <v>399.05</v>
       </c>
       <c r="F37" t="n">
-        <v>8073.73</v>
+        <v>4018.86</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2207,19 +2213,19 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7.97</v>
+        <v>3.97</v>
       </c>
       <c r="I37" t="n">
-        <v>48.76</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="58">
       <c r="A38" s="55" t="n">
-        <v>45978</v>
+        <v>45993</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2228,13 +2234,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>408</v>
+        <v>411.5</v>
       </c>
       <c r="F38" t="n">
-        <v>8217.82</v>
+        <v>4144.22</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2242,15 +2248,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8.19</v>
+        <v>4.15</v>
       </c>
       <c r="I38" t="n">
-        <v>49.63</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="58">
       <c r="A39" s="55" t="n">
-        <v>45975</v>
+        <v>45989</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2263,13 +2269,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>408.1</v>
+        <v>402.25</v>
       </c>
       <c r="F39" t="n">
-        <v>4109.91</v>
+        <v>405.09</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2277,15 +2283,15 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4.09</v>
+        <v>0.4</v>
       </c>
       <c r="I39" t="n">
-        <v>24.82</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="58">
       <c r="A40" s="55" t="n">
-        <v>45974</v>
+        <v>45989</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2298,13 +2304,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>410.45</v>
+        <v>402.3</v>
       </c>
       <c r="F40" t="n">
-        <v>8267.139999999999</v>
+        <v>3646.35</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2312,15 +2318,15 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8.18</v>
+        <v>3.61</v>
       </c>
       <c r="I40" t="n">
-        <v>49.96</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="58">
       <c r="A41" s="55" t="n">
-        <v>45972</v>
+        <v>45988</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2336,10 +2342,10 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>414.85</v>
+        <v>405.75</v>
       </c>
       <c r="F41" t="n">
-        <v>4177.83</v>
+        <v>4086.26</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2347,19 +2353,19 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4.12</v>
+        <v>4.04</v>
       </c>
       <c r="I41" t="n">
-        <v>25.21</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="58">
       <c r="A42" s="55" t="n">
-        <v>45959</v>
+        <v>45982</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2368,13 +2374,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>454.75</v>
+        <v>395.7</v>
       </c>
       <c r="F42" t="n">
-        <v>4579.65</v>
+        <v>7970.18</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2382,15 +2388,15 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4.54</v>
+        <v>7.91</v>
       </c>
       <c r="I42" t="n">
-        <v>27.61</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="58">
       <c r="A43" s="55" t="n">
-        <v>45957</v>
+        <v>45981</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2403,13 +2409,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>440.65</v>
+        <v>400.85</v>
       </c>
       <c r="F43" t="n">
-        <v>4437.7</v>
+        <v>8073.73</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2417,19 +2423,19 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4.42</v>
+        <v>7.97</v>
       </c>
       <c r="I43" t="n">
-        <v>26.78</v>
+        <v>48.76</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="58">
       <c r="A44" s="55" t="n">
-        <v>45954</v>
+        <v>45978</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2438,13 +2444,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E44" t="n">
-        <v>444.2</v>
+        <v>408</v>
       </c>
       <c r="F44" t="n">
-        <v>3131.46</v>
+        <v>8217.82</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2452,19 +2458,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3.11</v>
+        <v>8.19</v>
       </c>
       <c r="I44" t="n">
-        <v>18.95</v>
+        <v>49.63</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="58">
       <c r="A45" s="55" t="n">
-        <v>45954</v>
+        <v>45975</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2473,13 +2479,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>444.25</v>
+        <v>408.1</v>
       </c>
       <c r="F45" t="n">
-        <v>1342.19</v>
+        <v>4109.91</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2487,19 +2493,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.33</v>
+        <v>4.09</v>
       </c>
       <c r="I45" t="n">
-        <v>8.109999999999999</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="58">
       <c r="A46" s="55" t="n">
-        <v>45950</v>
+        <v>45974</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2508,13 +2514,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>444.2</v>
+        <v>410.45</v>
       </c>
       <c r="F46" t="n">
-        <v>4473.53</v>
+        <v>8267.139999999999</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2522,15 +2528,15 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4.44</v>
+        <v>8.18</v>
       </c>
       <c r="I46" t="n">
-        <v>27.09</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="58">
       <c r="A47" s="55" t="n">
-        <v>45947</v>
+        <v>45972</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2543,13 +2549,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>451.95</v>
+        <v>414.85</v>
       </c>
       <c r="F47" t="n">
-        <v>5917</v>
+        <v>4177.83</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2557,617 +2563,229 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5.89</v>
+        <v>4.12</v>
       </c>
       <c r="I47" t="n">
-        <v>35.76</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="58">
-      <c r="A48" s="25" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B48" s="26" t="inlineStr">
+      <c r="A48" s="55" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C48" s="26" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D48" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="E48" s="28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F48" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="G48" s="26" t="inlineStr">
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>454.75</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4579.65</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H48" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K48" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="Q48" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
-        <v/>
-      </c>
-      <c r="R48" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="S48" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="T48" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v/>
-      </c>
-      <c r="U48" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
-        <v/>
-      </c>
-      <c r="V48" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="34" t="n"/>
-      <c r="X48" s="34" t="n"/>
-      <c r="Y48" s="33">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="34" t="n"/>
-      <c r="AA48" s="34" t="n"/>
-      <c r="AB48" s="35" t="n"/>
-      <c r="AC48" s="31">
-        <f>IF(B11="DIV", F11,"")</f>
-        <v/>
-      </c>
-      <c r="AD48" s="36" t="n"/>
+      <c r="H48" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27.61</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="58">
-      <c r="A49" s="25" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B49" s="26" t="inlineStr">
+      <c r="A49" s="55" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C49" s="26" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D49" s="27" t="n">
-        <v>107</v>
-      </c>
-      <c r="E49" s="28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F49" s="28" t="n">
-        <v>267.5</v>
-      </c>
-      <c r="G49" s="26" t="inlineStr">
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>440.65</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4437.7</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H49" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K49" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
-        <v/>
-      </c>
-      <c r="R49" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="S49" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="T49" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v/>
-      </c>
-      <c r="U49" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
-        <v/>
-      </c>
-      <c r="V49" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="34" t="n"/>
-      <c r="X49" s="34" t="n"/>
-      <c r="Y49" s="33">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="34" t="n"/>
-      <c r="AA49" s="34" t="n"/>
-      <c r="AB49" s="35" t="n"/>
-      <c r="AC49" s="31">
-        <f>IF(B12="DIV", F12,"")</f>
-        <v/>
-      </c>
-      <c r="AD49" s="36" t="n"/>
+      <c r="H49" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.78</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="58">
-      <c r="A50" s="25" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B50" s="26" t="inlineStr">
+      <c r="A50" s="55" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C50" s="26" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D50" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="E50" s="28" t="n">
-        <v>422.53</v>
-      </c>
-      <c r="F50" s="28" t="n">
-        <v>8450.59</v>
-      </c>
-      <c r="G50" s="26" t="inlineStr">
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3131.46</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H50" s="27" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="I50" s="27" t="n"/>
-      <c r="J50" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K50" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="L50" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="M50" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
-        <v/>
-      </c>
-      <c r="N50" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
-        <v/>
-      </c>
-      <c r="O50" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="P50" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="Q50" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
-        <v/>
-      </c>
-      <c r="R50" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="S50" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="T50" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v/>
-      </c>
-      <c r="U50" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
-        <v/>
-      </c>
-      <c r="V50" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
-        <v/>
-      </c>
-      <c r="W50" s="34" t="n"/>
-      <c r="X50" s="34" t="n"/>
-      <c r="Y50" s="33">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
-        <v/>
-      </c>
-      <c r="Z50" s="34" t="n"/>
-      <c r="AA50" s="34" t="n"/>
-      <c r="AB50" s="35" t="n"/>
-      <c r="AC50" s="31">
-        <f>IF(B13="DIV", F13,"")</f>
-        <v/>
-      </c>
-      <c r="AD50" s="36" t="n"/>
+      <c r="H50" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18.95</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="58">
-      <c r="A51" s="25" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B51" s="26" t="inlineStr">
+      <c r="A51" s="55" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>444.25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1342.19</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" s="58">
+      <c r="A52" s="55" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>444.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4473.53</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="58">
+      <c r="A53" s="55" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C51" s="26" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D51" s="27" t="n">
-        <v>38</v>
-      </c>
-      <c r="E51" s="28" t="n">
-        <v>424.44</v>
-      </c>
-      <c r="F51" s="28" t="n">
-        <v>16128.6</v>
-      </c>
-      <c r="G51" s="26" t="inlineStr">
+      <c r="D53" t="n">
+        <v>13</v>
+      </c>
+      <c r="E53" t="n">
+        <v>451.95</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5917</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H51" s="27" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="I51" s="27" t="n"/>
-      <c r="J51" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K51" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="L51" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="M51" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
-        <v/>
-      </c>
-      <c r="N51" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
-        <v/>
-      </c>
-      <c r="O51" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="P51" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="Q51" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
-        <v/>
-      </c>
-      <c r="R51" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="S51" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="T51" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v/>
-      </c>
-      <c r="U51" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
-        <v/>
-      </c>
-      <c r="V51" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
-        <v/>
-      </c>
-      <c r="W51" s="34" t="n"/>
-      <c r="X51" s="34" t="n"/>
-      <c r="Y51" s="33">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
-        <v/>
-      </c>
-      <c r="Z51" s="34" t="n"/>
-      <c r="AA51" s="34" t="n"/>
-      <c r="AB51" s="35" t="n"/>
-      <c r="AC51" s="31">
-        <f>IF(B14="DIV", F14,"")</f>
-        <v/>
-      </c>
-      <c r="AD51" s="36" t="n"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" s="58">
-      <c r="A52" s="25" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B52" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C52" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D52" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" s="28" t="n">
-        <v>424.44</v>
-      </c>
-      <c r="F52" s="28" t="n">
-        <v>848.88</v>
-      </c>
-      <c r="G52" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H52" s="27" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I52" s="27" t="n"/>
-      <c r="J52" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K52" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="L52" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v/>
-      </c>
-      <c r="M52" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
-        <v/>
-      </c>
-      <c r="N52" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
-        <v/>
-      </c>
-      <c r="O52" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="P52" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v/>
-      </c>
-      <c r="Q52" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
-        <v/>
-      </c>
-      <c r="R52" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
-        <v/>
-      </c>
-      <c r="S52" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="T52" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v/>
-      </c>
-      <c r="U52" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
-        <v/>
-      </c>
-      <c r="V52" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="34" t="n"/>
-      <c r="X52" s="34" t="n"/>
-      <c r="Y52" s="33">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="34" t="n"/>
-      <c r="AA52" s="34" t="n"/>
-      <c r="AB52" s="35" t="n"/>
-      <c r="AC52" s="31">
-        <f>IF(B15="DIV", F15,"")</f>
-        <v/>
-      </c>
-      <c r="AD52" s="36" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="58">
-      <c r="A53" s="25" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B53" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C53" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D53" s="27" t="n">
-        <v>26</v>
-      </c>
-      <c r="E53" s="28" t="n">
-        <v>435.86</v>
-      </c>
-      <c r="F53" s="28" t="n">
-        <v>11332.31</v>
-      </c>
-      <c r="G53" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H53" s="27" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="I53" s="27" t="n"/>
-      <c r="J53" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K53" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="L53" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="M53" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
-        <v/>
-      </c>
-      <c r="N53" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
-        <v/>
-      </c>
-      <c r="O53" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="P53" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="Q53" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
-        <v/>
-      </c>
-      <c r="R53" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="S53" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="T53" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="U53" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
-        <v/>
-      </c>
-      <c r="V53" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="W53" s="34" t="n"/>
-      <c r="X53" s="34" t="n"/>
-      <c r="Y53" s="33">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="34" t="n"/>
-      <c r="AA53" s="34" t="n"/>
-      <c r="AB53" s="35" t="n"/>
-      <c r="AC53" s="31">
-        <f>IF(B16="DIV", F16,"")</f>
-        <v/>
-      </c>
-      <c r="AD53" s="36" t="n"/>
+      <c r="H53" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="I53" t="n">
+        <v>35.76</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="58">
       <c r="A54" s="25" t="n">
-        <v>45842</v>
+        <v>45856</v>
       </c>
       <c r="B54" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C54" s="26" t="inlineStr">
@@ -3176,97 +2794,99 @@
         </is>
       </c>
       <c r="D54" s="27" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E54" s="28" t="n">
-        <v>435.81</v>
+        <v>2.5</v>
       </c>
       <c r="F54" s="28" t="n">
-        <v>871.62</v>
+        <v>50</v>
       </c>
       <c r="G54" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
         </is>
       </c>
       <c r="H54" s="27" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I54" s="27" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L54" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M54" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N54" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O54" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P54" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R54" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S54" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T54" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U54" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V54" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W54" s="34" t="n"/>
       <c r="X54" s="34" t="n"/>
       <c r="Y54" s="33">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z54" s="34" t="n"/>
       <c r="AA54" s="34" t="n"/>
       <c r="AB54" s="35" t="n"/>
       <c r="AC54" s="31">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD54" s="36" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="58">
       <c r="A55" s="25" t="n">
-        <v>45842</v>
+        <v>45856</v>
       </c>
       <c r="B55" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C55" s="26" t="inlineStr">
@@ -3275,97 +2895,99 @@
         </is>
       </c>
       <c r="D55" s="27" t="n">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="E55" s="28" t="n">
-        <v>435.81</v>
+        <v>2.5</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>871.62</v>
+        <v>267.5</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
         </is>
       </c>
       <c r="H55" s="27" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I55" s="27" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L55" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M55" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N55" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O55" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P55" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R55" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S55" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T55" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U55" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V55" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W55" s="34" t="n"/>
       <c r="X55" s="34" t="n"/>
       <c r="Y55" s="33">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z55" s="34" t="n"/>
       <c r="AA55" s="34" t="n"/>
       <c r="AB55" s="35" t="n"/>
       <c r="AC55" s="31">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD55" s="36" t="n"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="58">
       <c r="A56" s="25" t="n">
-        <v>45821</v>
+        <v>45855</v>
       </c>
       <c r="B56" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C56" s="26" t="inlineStr">
@@ -3374,13 +2996,13 @@
         </is>
       </c>
       <c r="D56" s="27" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>441.31</v>
+        <v>422.53</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>3089.19</v>
+        <v>8450.59</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
@@ -3388,7 +3010,7 @@
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>3.08</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I56" s="27" t="n"/>
       <c r="J56" s="29">
@@ -3396,71 +3018,71 @@
         <v/>
       </c>
       <c r="K56" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L56" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M56" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N56" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O56" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P56" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R56" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S56" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T56" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U56" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V56" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W56" s="34" t="n"/>
       <c r="X56" s="34" t="n"/>
       <c r="Y56" s="33">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z56" s="34" t="n"/>
       <c r="AA56" s="34" t="n"/>
       <c r="AB56" s="35" t="n"/>
       <c r="AC56" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD56" s="36" t="n"/>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="58">
       <c r="A57" s="25" t="n">
-        <v>45820</v>
+        <v>45849</v>
       </c>
       <c r="B57" s="26" t="inlineStr">
         <is>
@@ -3473,13 +3095,13 @@
         </is>
       </c>
       <c r="D57" s="27" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E57" s="28" t="n">
-        <v>454.8</v>
+        <v>424.44</v>
       </c>
       <c r="F57" s="28" t="n">
-        <v>11370.03</v>
+        <v>16128.6</v>
       </c>
       <c r="G57" s="26" t="inlineStr">
         <is>
@@ -3487,7 +3109,7 @@
         </is>
       </c>
       <c r="H57" s="27" t="n">
-        <v>11.27</v>
+        <v>15.98</v>
       </c>
       <c r="I57" s="27" t="n"/>
       <c r="J57" s="29">
@@ -3495,71 +3117,71 @@
         <v/>
       </c>
       <c r="K57" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L57" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M57" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N57" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O57" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P57" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R57" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S57" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T57" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U57" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V57" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W57" s="34" t="n"/>
       <c r="X57" s="34" t="n"/>
       <c r="Y57" s="33">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z57" s="34" t="n"/>
       <c r="AA57" s="34" t="n"/>
       <c r="AB57" s="35" t="n"/>
       <c r="AC57" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD57" s="36" t="n"/>
     </row>
     <row r="58" ht="13" customHeight="1" s="58">
       <c r="A58" s="25" t="n">
-        <v>45820</v>
+        <v>45849</v>
       </c>
       <c r="B58" s="26" t="inlineStr">
         <is>
@@ -3572,13 +3194,13 @@
         </is>
       </c>
       <c r="D58" s="27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E58" s="28" t="n">
-        <v>454.8</v>
+        <v>424.44</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>2274.02</v>
+        <v>848.88</v>
       </c>
       <c r="G58" s="26" t="inlineStr">
         <is>
@@ -3586,7 +3208,7 @@
         </is>
       </c>
       <c r="H58" s="27" t="n">
-        <v>2.26</v>
+        <v>0.84</v>
       </c>
       <c r="I58" s="27" t="n"/>
       <c r="J58" s="29">
@@ -3594,163 +3216,661 @@
         <v/>
       </c>
       <c r="K58" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L58" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M58" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N58" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O58" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P58" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R58" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S58" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T58" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U58" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V58" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W58" s="34" t="n"/>
       <c r="X58" s="34" t="n"/>
       <c r="Y58" s="33">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z58" s="34" t="n"/>
       <c r="AA58" s="34" t="n"/>
       <c r="AB58" s="35" t="n"/>
       <c r="AC58" s="31">
+        <f>IF(B15="DIV", F15,"")</f>
+        <v/>
+      </c>
+      <c r="AD58" s="36" t="n"/>
+    </row>
+    <row r="59" ht="13" customHeight="1" s="58">
+      <c r="A59" s="25" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B59" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C59" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D59" s="27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E59" s="28" t="n">
+        <v>435.86</v>
+      </c>
+      <c r="F59" s="28" t="n">
+        <v>11332.31</v>
+      </c>
+      <c r="G59" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H59" s="27" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I59" s="27" t="n"/>
+      <c r="J59" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K59" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="L59" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <v/>
+      </c>
+      <c r="N59" s="32">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <v/>
+      </c>
+      <c r="O59" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="P59" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <v/>
+      </c>
+      <c r="R59" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="S59" s="33">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="T59" s="34">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="U59" s="34">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <v/>
+      </c>
+      <c r="V59" s="34">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="34" t="n"/>
+      <c r="X59" s="34" t="n"/>
+      <c r="Y59" s="33">
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="34" t="n"/>
+      <c r="AA59" s="34" t="n"/>
+      <c r="AB59" s="35" t="n"/>
+      <c r="AC59" s="31">
+        <f>IF(B16="DIV", F16,"")</f>
+        <v/>
+      </c>
+      <c r="AD59" s="36" t="n"/>
+    </row>
+    <row r="60" ht="13" customHeight="1" s="58">
+      <c r="A60" s="25" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B60" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C60" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D60" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="28" t="n">
+        <v>435.81</v>
+      </c>
+      <c r="F60" s="28" t="n">
+        <v>871.62</v>
+      </c>
+      <c r="G60" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H60" s="27" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K60" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L60" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N60" s="32">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O60" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P60" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R60" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S60" s="33">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T60" s="34">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U60" s="34">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V60" s="34">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="34" t="n"/>
+      <c r="X60" s="34" t="n"/>
+      <c r="Y60" s="33">
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="34" t="n"/>
+      <c r="AA60" s="34" t="n"/>
+      <c r="AB60" s="35" t="n"/>
+      <c r="AC60" s="31">
+        <f>IF(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD60" s="36" t="n"/>
+    </row>
+    <row r="61" ht="13" customHeight="1" s="58">
+      <c r="A61" s="25" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B61" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C61" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D61" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="28" t="n">
+        <v>435.81</v>
+      </c>
+      <c r="F61" s="28" t="n">
+        <v>871.62</v>
+      </c>
+      <c r="G61" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H61" s="27" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K61" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="L61" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="M61" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <v/>
+      </c>
+      <c r="N61" s="32">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <v/>
+      </c>
+      <c r="O61" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="P61" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="Q61" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <v/>
+      </c>
+      <c r="R61" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="S61" s="33">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="T61" s="34">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="U61" s="34">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <v/>
+      </c>
+      <c r="V61" s="34">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="34" t="n"/>
+      <c r="X61" s="34" t="n"/>
+      <c r="Y61" s="33">
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="34" t="n"/>
+      <c r="AA61" s="34" t="n"/>
+      <c r="AB61" s="35" t="n"/>
+      <c r="AC61" s="31">
+        <f>IF(B18="DIV", F18,"")</f>
+        <v/>
+      </c>
+      <c r="AD61" s="36" t="n"/>
+    </row>
+    <row r="62" ht="13" customHeight="1" s="58">
+      <c r="A62" s="25" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B62" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C62" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D62" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" s="28" t="n">
+        <v>441.31</v>
+      </c>
+      <c r="F62" s="28" t="n">
+        <v>3089.19</v>
+      </c>
+      <c r="G62" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H62" s="27" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K62" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="L62" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N62" s="32">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O62" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="P62" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R62" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="S62" s="33">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="T62" s="34">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="U62" s="34">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <v/>
+      </c>
+      <c r="V62" s="34">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="34" t="n"/>
+      <c r="X62" s="34" t="n"/>
+      <c r="Y62" s="33">
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="34" t="n"/>
+      <c r="AA62" s="34" t="n"/>
+      <c r="AB62" s="35" t="n"/>
+      <c r="AC62" s="31">
+        <f>IF(B19="DIV", F19,"")</f>
+        <v/>
+      </c>
+      <c r="AD62" s="36" t="n"/>
+    </row>
+    <row r="63" ht="13" customHeight="1" s="58">
+      <c r="A63" s="25" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B63" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C63" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D63" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E63" s="28" t="n">
+        <v>454.8</v>
+      </c>
+      <c r="F63" s="28" t="n">
+        <v>11370.03</v>
+      </c>
+      <c r="G63" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H63" s="27" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="I63" s="27" t="n"/>
+      <c r="J63" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K63" s="30">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="L63" s="31">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="M63" s="31">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <v/>
+      </c>
+      <c r="N63" s="32">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <v/>
+      </c>
+      <c r="O63" s="30">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="P63" s="31">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="Q63" s="31">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <v/>
+      </c>
+      <c r="R63" s="31">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="S63" s="33">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="T63" s="34">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <v/>
+      </c>
+      <c r="U63" s="34">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <v/>
+      </c>
+      <c r="V63" s="34">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W63" s="34" t="n"/>
+      <c r="X63" s="34" t="n"/>
+      <c r="Y63" s="33">
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="34" t="n"/>
+      <c r="AA63" s="34" t="n"/>
+      <c r="AB63" s="35" t="n"/>
+      <c r="AC63" s="31">
+        <f>IF(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD63" s="36" t="n"/>
+    </row>
+    <row r="64" ht="13" customHeight="1" s="58">
+      <c r="A64" s="25" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B64" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C64" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D64" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="28" t="n">
+        <v>454.8</v>
+      </c>
+      <c r="F64" s="28" t="n">
+        <v>2274.02</v>
+      </c>
+      <c r="G64" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H64" s="27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I64" s="27" t="n"/>
+      <c r="J64" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K64" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L64" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M64" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N64" s="32">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O64" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P64" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q64" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R64" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S64" s="33">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T64" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U64" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V64" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W64" s="34" t="n"/>
+      <c r="X64" s="34" t="n"/>
+      <c r="Y64" s="33">
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="34" t="n"/>
+      <c r="AA64" s="34" t="n"/>
+      <c r="AB64" s="35" t="n"/>
+      <c r="AC64" s="31">
         <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
-      <c r="AD58" s="36" t="n"/>
-    </row>
-    <row r="59" ht="13" customHeight="1" s="58">
-      <c r="E59" s="37" t="n"/>
-      <c r="F59" s="37" t="n"/>
-      <c r="G59" s="38" t="n"/>
-      <c r="J59" s="37" t="n"/>
-      <c r="K59" s="37" t="n"/>
-      <c r="L59" s="37" t="n"/>
-      <c r="M59" s="1" t="n"/>
-      <c r="W59" s="37" t="n"/>
-      <c r="X59" s="37" t="n"/>
-      <c r="Y59" s="37" t="n"/>
-      <c r="Z59" s="37" t="n"/>
-      <c r="AA59" s="37" t="n"/>
-      <c r="AB59" s="37" t="n"/>
-      <c r="AC59" s="37" t="n"/>
-    </row>
-    <row r="60" ht="13" customHeight="1" s="58">
-      <c r="E60" s="37" t="n"/>
-      <c r="F60" s="37" t="n"/>
-      <c r="G60" s="38" t="n"/>
-      <c r="J60" s="37" t="n"/>
-      <c r="K60" s="37" t="n"/>
-      <c r="L60" s="37" t="n"/>
-      <c r="M60" s="1" t="n"/>
-      <c r="W60" s="37" t="n"/>
-      <c r="X60" s="37" t="n"/>
-      <c r="Y60" s="37" t="n"/>
-      <c r="Z60" s="37" t="n"/>
-      <c r="AA60" s="37" t="n"/>
-      <c r="AB60" s="37" t="n"/>
-      <c r="AC60" s="37" t="n"/>
-    </row>
-    <row r="61" ht="13" customHeight="1" s="58">
-      <c r="E61" s="37" t="n"/>
-      <c r="F61" s="37" t="n"/>
-      <c r="G61" s="38" t="n"/>
-      <c r="J61" s="37" t="n"/>
-      <c r="K61" s="37" t="n"/>
-      <c r="L61" s="37" t="n"/>
-      <c r="M61" s="1" t="n"/>
-      <c r="W61" s="37" t="n"/>
-      <c r="X61" s="37" t="n"/>
-      <c r="Y61" s="37" t="n"/>
-      <c r="Z61" s="37" t="n"/>
-      <c r="AA61" s="37" t="n"/>
-      <c r="AB61" s="37" t="n"/>
-      <c r="AC61" s="37" t="n"/>
-    </row>
-    <row r="62" ht="13" customHeight="1" s="58">
-      <c r="E62" s="37" t="n"/>
-      <c r="F62" s="37" t="n"/>
-      <c r="G62" s="38" t="n"/>
-      <c r="J62" s="37" t="n"/>
-      <c r="K62" s="37" t="n"/>
-      <c r="L62" s="37" t="n"/>
-      <c r="M62" s="1" t="n"/>
-      <c r="W62" s="37" t="n"/>
-      <c r="X62" s="37" t="n"/>
-      <c r="Y62" s="37" t="n"/>
-      <c r="Z62" s="37" t="n"/>
-      <c r="AA62" s="37" t="n"/>
-      <c r="AB62" s="37" t="n"/>
-      <c r="AC62" s="37" t="n"/>
-    </row>
-    <row r="63" ht="13" customHeight="1" s="58">
-      <c r="E63" s="37" t="n"/>
-      <c r="F63" s="37" t="n"/>
-      <c r="G63" s="38" t="n"/>
-      <c r="J63" s="37" t="n"/>
-      <c r="K63" s="37" t="n"/>
-      <c r="L63" s="37" t="n"/>
-      <c r="M63" s="1" t="n"/>
-      <c r="W63" s="37" t="n"/>
-      <c r="X63" s="37" t="n"/>
-      <c r="Y63" s="37" t="n"/>
-      <c r="Z63" s="37" t="n"/>
-      <c r="AA63" s="37" t="n"/>
-      <c r="AB63" s="37" t="n"/>
-      <c r="AC63" s="37" t="n"/>
-    </row>
-    <row r="64" ht="13" customHeight="1" s="58">
-      <c r="E64" s="37" t="n"/>
-      <c r="F64" s="37" t="n"/>
-      <c r="G64" s="38" t="n"/>
-      <c r="J64" s="37" t="n"/>
-      <c r="K64" s="37" t="n"/>
-      <c r="L64" s="37" t="n"/>
-      <c r="M64" s="1" t="n"/>
-      <c r="W64" s="37" t="n"/>
-      <c r="X64" s="37" t="n"/>
-      <c r="Y64" s="37" t="n"/>
-      <c r="Z64" s="37" t="n"/>
-      <c r="AA64" s="37" t="n"/>
-      <c r="AB64" s="37" t="n"/>
-      <c r="AC64" s="37" t="n"/>
+      <c r="AD64" s="36" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="58">
       <c r="E65" s="37" t="n"/>
@@ -18639,6 +18759,7 @@
       <c r="J995" s="37" t="n"/>
       <c r="K995" s="37" t="n"/>
       <c r="L995" s="37" t="n"/>
+      <c r="M995" s="1" t="n"/>
       <c r="W995" s="37" t="n"/>
       <c r="X995" s="37" t="n"/>
       <c r="Y995" s="37" t="n"/>
@@ -18654,6 +18775,7 @@
       <c r="J996" s="37" t="n"/>
       <c r="K996" s="37" t="n"/>
       <c r="L996" s="37" t="n"/>
+      <c r="M996" s="1" t="n"/>
       <c r="W996" s="37" t="n"/>
       <c r="X996" s="37" t="n"/>
       <c r="Y996" s="37" t="n"/>
@@ -18669,6 +18791,7 @@
       <c r="J997" s="37" t="n"/>
       <c r="K997" s="37" t="n"/>
       <c r="L997" s="37" t="n"/>
+      <c r="M997" s="1" t="n"/>
       <c r="W997" s="37" t="n"/>
       <c r="X997" s="37" t="n"/>
       <c r="Y997" s="37" t="n"/>
@@ -18684,6 +18807,7 @@
       <c r="J998" s="37" t="n"/>
       <c r="K998" s="37" t="n"/>
       <c r="L998" s="37" t="n"/>
+      <c r="M998" s="1" t="n"/>
       <c r="W998" s="37" t="n"/>
       <c r="X998" s="37" t="n"/>
       <c r="Y998" s="37" t="n"/>
@@ -18699,6 +18823,7 @@
       <c r="J999" s="37" t="n"/>
       <c r="K999" s="37" t="n"/>
       <c r="L999" s="37" t="n"/>
+      <c r="M999" s="1" t="n"/>
       <c r="W999" s="37" t="n"/>
       <c r="X999" s="37" t="n"/>
       <c r="Y999" s="37" t="n"/>
@@ -18714,6 +18839,7 @@
       <c r="J1000" s="37" t="n"/>
       <c r="K1000" s="37" t="n"/>
       <c r="L1000" s="37" t="n"/>
+      <c r="M1000" s="1" t="n"/>
       <c r="W1000" s="37" t="n"/>
       <c r="X1000" s="37" t="n"/>
       <c r="Y1000" s="37" t="n"/>
@@ -18886,6 +19012,96 @@
       <c r="AA1011" s="37" t="n"/>
       <c r="AB1011" s="37" t="n"/>
       <c r="AC1011" s="37" t="n"/>
+    </row>
+    <row r="1012">
+      <c r="E1012" s="37" t="n"/>
+      <c r="F1012" s="37" t="n"/>
+      <c r="G1012" s="38" t="n"/>
+      <c r="J1012" s="37" t="n"/>
+      <c r="K1012" s="37" t="n"/>
+      <c r="L1012" s="37" t="n"/>
+      <c r="W1012" s="37" t="n"/>
+      <c r="X1012" s="37" t="n"/>
+      <c r="Y1012" s="37" t="n"/>
+      <c r="Z1012" s="37" t="n"/>
+      <c r="AA1012" s="37" t="n"/>
+      <c r="AB1012" s="37" t="n"/>
+      <c r="AC1012" s="37" t="n"/>
+    </row>
+    <row r="1013">
+      <c r="E1013" s="37" t="n"/>
+      <c r="F1013" s="37" t="n"/>
+      <c r="G1013" s="38" t="n"/>
+      <c r="J1013" s="37" t="n"/>
+      <c r="K1013" s="37" t="n"/>
+      <c r="L1013" s="37" t="n"/>
+      <c r="W1013" s="37" t="n"/>
+      <c r="X1013" s="37" t="n"/>
+      <c r="Y1013" s="37" t="n"/>
+      <c r="Z1013" s="37" t="n"/>
+      <c r="AA1013" s="37" t="n"/>
+      <c r="AB1013" s="37" t="n"/>
+      <c r="AC1013" s="37" t="n"/>
+    </row>
+    <row r="1014">
+      <c r="E1014" s="37" t="n"/>
+      <c r="F1014" s="37" t="n"/>
+      <c r="G1014" s="38" t="n"/>
+      <c r="J1014" s="37" t="n"/>
+      <c r="K1014" s="37" t="n"/>
+      <c r="L1014" s="37" t="n"/>
+      <c r="W1014" s="37" t="n"/>
+      <c r="X1014" s="37" t="n"/>
+      <c r="Y1014" s="37" t="n"/>
+      <c r="Z1014" s="37" t="n"/>
+      <c r="AA1014" s="37" t="n"/>
+      <c r="AB1014" s="37" t="n"/>
+      <c r="AC1014" s="37" t="n"/>
+    </row>
+    <row r="1015">
+      <c r="E1015" s="37" t="n"/>
+      <c r="F1015" s="37" t="n"/>
+      <c r="G1015" s="38" t="n"/>
+      <c r="J1015" s="37" t="n"/>
+      <c r="K1015" s="37" t="n"/>
+      <c r="L1015" s="37" t="n"/>
+      <c r="W1015" s="37" t="n"/>
+      <c r="X1015" s="37" t="n"/>
+      <c r="Y1015" s="37" t="n"/>
+      <c r="Z1015" s="37" t="n"/>
+      <c r="AA1015" s="37" t="n"/>
+      <c r="AB1015" s="37" t="n"/>
+      <c r="AC1015" s="37" t="n"/>
+    </row>
+    <row r="1016">
+      <c r="E1016" s="37" t="n"/>
+      <c r="F1016" s="37" t="n"/>
+      <c r="G1016" s="38" t="n"/>
+      <c r="J1016" s="37" t="n"/>
+      <c r="K1016" s="37" t="n"/>
+      <c r="L1016" s="37" t="n"/>
+      <c r="W1016" s="37" t="n"/>
+      <c r="X1016" s="37" t="n"/>
+      <c r="Y1016" s="37" t="n"/>
+      <c r="Z1016" s="37" t="n"/>
+      <c r="AA1016" s="37" t="n"/>
+      <c r="AB1016" s="37" t="n"/>
+      <c r="AC1016" s="37" t="n"/>
+    </row>
+    <row r="1017">
+      <c r="E1017" s="37" t="n"/>
+      <c r="F1017" s="37" t="n"/>
+      <c r="G1017" s="38" t="n"/>
+      <c r="J1017" s="37" t="n"/>
+      <c r="K1017" s="37" t="n"/>
+      <c r="L1017" s="37" t="n"/>
+      <c r="W1017" s="37" t="n"/>
+      <c r="X1017" s="37" t="n"/>
+      <c r="Y1017" s="37" t="n"/>
+      <c r="Z1017" s="37" t="n"/>
+      <c r="AA1017" s="37" t="n"/>
+      <c r="AB1017" s="37" t="n"/>
+      <c r="AC1017" s="37" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO45"/>

--- a/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
+++ b/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenin/Desktop/workspace/pl/dumps/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54496614-E428-944D-9BB3-D003589E5B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2432D2AE-2B10-D940-8A0D-094401A9543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="79">
   <si>
     <t>UnRealised</t>
   </si>
@@ -873,13 +873,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AP1001"/>
+  <dimension ref="A1:AP1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6" spans="1:42" ht="15.75" customHeight="1">
       <c r="A6" s="55">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1200,10 +1200,10 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>333.4</v>
+        <v>338.08</v>
       </c>
       <c r="F6">
-        <v>3350.7</v>
+        <v>3380.8</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="7" spans="1:42" ht="15.75" customHeight="1">
       <c r="A7" s="55">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1230,16 +1230,16 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>339.9</v>
+        <v>333.4</v>
       </c>
       <c r="F7">
-        <v>3416</v>
+        <v>3350.7</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="8" spans="1:42" ht="15.75" customHeight="1">
       <c r="A8" s="55">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1260,13 +1260,13 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>339.1</v>
+        <v>339.9</v>
       </c>
       <c r="F8">
-        <v>3408</v>
+        <v>3416</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>17</v>
@@ -1276,9 +1276,9 @@
         <v>338.15</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="13" customHeight="1">
+    <row r="9" spans="1:42" ht="15.75" customHeight="1">
       <c r="A9" s="55">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1290,16 +1290,16 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>337.8</v>
+        <v>339.1</v>
       </c>
       <c r="F9">
-        <v>3394.9</v>
+        <v>3408</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9">
-        <v>16.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="10" spans="1:42" ht="13" customHeight="1">
       <c r="A10" s="55">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1317,19 +1317,19 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>356.85</v>
+        <v>337.8</v>
       </c>
       <c r="F10">
-        <v>7172.6</v>
+        <v>3394.9</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10">
-        <v>35.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="11" spans="1:42" ht="13" customHeight="1">
       <c r="A11" s="55">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1347,19 +1347,19 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>379.65</v>
+        <v>356.85</v>
       </c>
       <c r="F11">
-        <v>3815.5</v>
+        <v>7172.6</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>35.6</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="12" spans="1:42" ht="13" customHeight="1">
       <c r="A12" s="55">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1380,16 +1380,16 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>388.6</v>
+        <v>379.65</v>
       </c>
       <c r="F12">
-        <v>3905.4</v>
+        <v>3815.5</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12">
-        <v>19.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="13" spans="1:42" ht="13" customHeight="1">
       <c r="A13" s="55">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1410,16 +1410,16 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>391.25</v>
+        <v>388.6</v>
       </c>
       <c r="F13">
-        <v>3932.1</v>
+        <v>3905.4</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13">
-        <v>19.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="14" spans="1:42" ht="13" customHeight="1">
       <c r="A14" s="55">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1440,16 +1440,16 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>390</v>
+        <v>391.25</v>
       </c>
       <c r="F14">
-        <v>3919.5</v>
+        <v>3932.1</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14">
-        <v>19.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="15" spans="1:42" ht="13" customHeight="1">
       <c r="A15" s="55">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1470,16 +1470,16 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>385.8</v>
+        <v>390</v>
       </c>
       <c r="F15">
-        <v>3877.3</v>
+        <v>3919.5</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="16" spans="1:42" ht="13" customHeight="1">
       <c r="A16" s="55">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1497,19 +1497,19 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>390.7</v>
+        <v>385.8</v>
       </c>
       <c r="F16">
-        <v>7853</v>
+        <v>3877.3</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16">
-        <v>39</v>
+        <v>19.3</v>
       </c>
       <c r="J16">
         <f>Index!$C$2</f>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="17" spans="1:10" ht="13" customHeight="1">
       <c r="A17" s="55">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1527,19 +1527,19 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>386.65</v>
+        <v>390.7</v>
       </c>
       <c r="F17">
-        <v>3885.8</v>
+        <v>7853</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17">
-        <v>19.3</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <f>Index!$C$2</f>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="18" spans="1:10" ht="13" customHeight="1">
       <c r="A18" s="55">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1560,16 +1560,16 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>382</v>
+        <v>386.65</v>
       </c>
       <c r="F18">
-        <v>3839.1</v>
+        <v>3885.8</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18">
-        <v>19.100000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="J18">
         <f>Index!$C$2</f>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="19" spans="1:10" ht="13" customHeight="1">
       <c r="A19" s="55">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1590,16 +1590,16 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F19">
-        <v>3849.2</v>
+        <v>3839.1</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19">
-        <v>19.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J19">
         <f>Index!$C$2</f>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="20" spans="1:10" ht="13" customHeight="1">
       <c r="A20" s="55">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1620,16 +1620,16 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>396.15</v>
+        <v>383</v>
       </c>
       <c r="F20">
-        <v>3981.3</v>
+        <v>3849.2</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="J20">
         <f>Index!$C$2</f>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="21" spans="1:10" ht="13" customHeight="1">
       <c r="A21" s="55">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1647,19 +1647,19 @@
         <v>27</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>396.45</v>
+        <v>396.15</v>
       </c>
       <c r="F21">
-        <v>7968.6</v>
+        <v>3981.3</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21">
-        <v>39.6</v>
+        <v>19.8</v>
       </c>
       <c r="J21">
         <f>Index!$C$2</f>
@@ -1668,28 +1668,28 @@
     </row>
     <row r="22" spans="1:10" ht="13" customHeight="1">
       <c r="A22" s="55">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>399.05</v>
+        <v>396.45</v>
       </c>
       <c r="F22">
-        <v>4010.5</v>
+        <v>7968.6</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>39.6</v>
       </c>
       <c r="J22">
         <f>Index!$C$2</f>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="23" spans="1:10" ht="13" customHeight="1">
       <c r="A23" s="55">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -1710,16 +1710,16 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>411.5</v>
+        <v>399.05</v>
       </c>
       <c r="F23">
-        <v>4135.6000000000004</v>
+        <v>4010.5</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <f>Index!$C$2</f>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="24" spans="1:10" ht="13" customHeight="1">
       <c r="A24" s="55">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -1740,16 +1740,16 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>402.29500000000002</v>
+        <v>411.5</v>
       </c>
       <c r="F24">
-        <v>4043.05</v>
+        <v>4135.6000000000004</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24">
-        <v>20.100000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="J24">
         <f>Index!$C$2</f>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="25" spans="1:10" ht="13" customHeight="1">
       <c r="A25" s="55">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1770,16 +1770,16 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>405.75</v>
+        <v>402.29500000000002</v>
       </c>
       <c r="F25">
-        <v>4077.8</v>
+        <v>4043.05</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I25">
-        <v>20.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="J25">
         <f>Index!$C$2</f>
@@ -1788,28 +1788,28 @@
     </row>
     <row r="26" spans="1:10" ht="13" customHeight="1">
       <c r="A26" s="55">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>395.7</v>
+        <v>405.75</v>
       </c>
       <c r="F26">
-        <v>7953.6</v>
+        <v>4077.8</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26">
-        <v>39.6</v>
+        <v>20.3</v>
       </c>
       <c r="J26">
         <f>Index!$C$2</f>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="27" spans="1:10" ht="13" customHeight="1">
       <c r="A27" s="55">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1830,16 +1830,16 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>400.85</v>
+        <v>395.7</v>
       </c>
       <c r="F27">
-        <v>8057</v>
+        <v>7953.6</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="J27">
         <f>Index!$C$2</f>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="28" spans="1:10" ht="13" customHeight="1">
       <c r="A28" s="55">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1860,16 +1860,16 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <v>408</v>
+        <v>400.85</v>
       </c>
       <c r="F28">
-        <v>8200.7999999999993</v>
+        <v>8057</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28">
-        <v>40.799999999999997</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <f>Index!$C$2</f>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="29" spans="1:10" ht="13" customHeight="1">
       <c r="A29" s="55">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -1887,19 +1887,19 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>408.1</v>
+        <v>408</v>
       </c>
       <c r="F29">
-        <v>4101.3999999999996</v>
+        <v>8200.7999999999993</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29">
-        <v>20.399999999999999</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J29">
         <f>Index!$C$2</f>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="30" spans="1:10" ht="13" customHeight="1">
       <c r="A30" s="55">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -1917,19 +1917,19 @@
         <v>27</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>410.45</v>
+        <v>408.1</v>
       </c>
       <c r="F30">
-        <v>8250</v>
+        <v>4101.3999999999996</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I30">
-        <v>41</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J30">
         <f>Index!$C$2</f>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="31" spans="1:10" ht="13" customHeight="1">
       <c r="A31" s="55">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -1947,19 +1947,19 @@
         <v>27</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>414.85</v>
+        <v>410.45</v>
       </c>
       <c r="F31">
-        <v>4169.2</v>
+        <v>8250</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31">
-        <v>20.7</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <f>Index!$C$2</f>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="32" spans="1:10" ht="13" customHeight="1">
       <c r="A32" s="55">
-        <v>45959</v>
+        <v>45972</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -1980,16 +1980,16 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <v>454.75</v>
+        <v>414.85</v>
       </c>
       <c r="F32">
-        <v>4570.2</v>
+        <v>4169.2</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32">
-        <v>22.7</v>
+        <v>20.7</v>
       </c>
       <c r="J32">
         <f>Index!$C$2</f>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="33" spans="1:30" ht="13" customHeight="1">
       <c r="A33" s="55">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -2010,16 +2010,16 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>440.65</v>
+        <v>454.75</v>
       </c>
       <c r="F33">
-        <v>4428.5</v>
+        <v>4570.2</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="J33">
         <f>Index!$C$2</f>
@@ -2027,96 +2027,34 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="13" customHeight="1">
-      <c r="A34" s="25">
-        <v>45954</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="55">
+        <v>45957</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="27">
-        <v>3</v>
-      </c>
-      <c r="E34" s="28">
-        <v>447.35</v>
-      </c>
-      <c r="F34" s="28">
-        <v>8450.59</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="27">
-        <v>8.39</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29">
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>440.65</v>
+      </c>
+      <c r="F34">
+        <v>4428.5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34">
+        <v>22</v>
+      </c>
+      <c r="J34">
         <f>Index!$C$2</f>
         <v>338.15</v>
       </c>
-      <c r="K34" s="30" t="e">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L34" s="31" t="e">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M34" s="31" t="e">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" s="32" t="e">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O34" s="30" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P34" s="31" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q34" s="31" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R34" s="31" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S34" s="33" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T34" s="34" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U34" s="34" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V34" s="34" t="e">
-        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="33" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="31" t="e">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD34" s="36"/>
     </row>
     <row r="35" spans="1:30" ht="13" customHeight="1">
       <c r="A35" s="25">
@@ -2129,7 +2067,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E35" s="28">
         <v>447.35</v>
@@ -2212,7 +2150,7 @@
     </row>
     <row r="36" spans="1:30" ht="13" customHeight="1">
       <c r="A36" s="25">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>45</v>
@@ -2221,7 +2159,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E36" s="28">
         <v>447.35</v>
@@ -2304,7 +2242,7 @@
     </row>
     <row r="37" spans="1:30" ht="13" customHeight="1">
       <c r="A37" s="25">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>45</v>
@@ -2313,10 +2251,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="28">
-        <v>455.15</v>
+        <v>447.35</v>
       </c>
       <c r="F37" s="28">
         <v>8450.59</v>
@@ -2396,32 +2334,30 @@
     </row>
     <row r="38" spans="1:30" ht="13" customHeight="1">
       <c r="A38" s="25">
-        <v>45856</v>
+        <v>45947</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E38" s="28">
-        <v>2.5</v>
+        <v>455.15</v>
       </c>
       <c r="F38" s="28">
-        <v>50</v>
+        <v>8450.59</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H38" s="27">
-        <v>0</v>
-      </c>
-      <c r="I38" s="27">
-        <v>0</v>
-      </c>
+        <v>8.39</v>
+      </c>
+      <c r="I38" s="27"/>
       <c r="J38" s="29">
         <f>Index!$C$2</f>
         <v>338.15</v>
@@ -2499,13 +2435,13 @@
         <v>27</v>
       </c>
       <c r="D39" s="27">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E39" s="28">
         <v>2.5</v>
       </c>
       <c r="F39" s="28">
-        <v>267.5</v>
+        <v>50</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>58</v>
@@ -2584,30 +2520,32 @@
     </row>
     <row r="40" spans="1:30" ht="13" customHeight="1">
       <c r="A40" s="25">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="27">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E40" s="28">
-        <v>422.53</v>
+        <v>2.5</v>
       </c>
       <c r="F40" s="28">
-        <v>8450.59</v>
+        <v>267.5</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H40" s="27">
-        <v>8.39</v>
-      </c>
-      <c r="I40" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="27">
+        <v>0</v>
+      </c>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
         <v>338.15</v>
@@ -2676,28 +2614,28 @@
     </row>
     <row r="41" spans="1:30" ht="13" customHeight="1">
       <c r="A41" s="25">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="27">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E41" s="28">
-        <v>424.44</v>
+        <v>422.53</v>
       </c>
       <c r="F41" s="28">
-        <v>16128.6</v>
+        <v>8450.59</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H41" s="27">
-        <v>15.98</v>
+        <v>8.39</v>
       </c>
       <c r="I41" s="27"/>
       <c r="J41" s="29">
@@ -2777,19 +2715,19 @@
         <v>27</v>
       </c>
       <c r="D42" s="27">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E42" s="28">
         <v>424.44</v>
       </c>
       <c r="F42" s="28">
-        <v>848.88</v>
+        <v>16128.6</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H42" s="27">
-        <v>0.84</v>
+        <v>15.98</v>
       </c>
       <c r="I42" s="27"/>
       <c r="J42" s="29">
@@ -2860,7 +2798,7 @@
     </row>
     <row r="43" spans="1:30" ht="13" customHeight="1">
       <c r="A43" s="25">
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>26</v>
@@ -2869,19 +2807,19 @@
         <v>27</v>
       </c>
       <c r="D43" s="27">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E43" s="28">
-        <v>435.86</v>
+        <v>424.44</v>
       </c>
       <c r="F43" s="28">
-        <v>11332.31</v>
+        <v>848.88</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H43" s="27">
-        <v>11.23</v>
+        <v>0.84</v>
       </c>
       <c r="I43" s="27"/>
       <c r="J43" s="29">
@@ -2961,19 +2899,19 @@
         <v>27</v>
       </c>
       <c r="D44" s="27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E44" s="28">
-        <v>435.81</v>
+        <v>435.86</v>
       </c>
       <c r="F44" s="28">
-        <v>871.62</v>
+        <v>11332.31</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H44" s="27">
-        <v>0.87</v>
+        <v>11.23</v>
       </c>
       <c r="I44" s="27"/>
       <c r="J44" s="29">
@@ -3136,7 +3074,7 @@
     </row>
     <row r="46" spans="1:30" ht="13" customHeight="1">
       <c r="A46" s="25">
-        <v>45821</v>
+        <v>45842</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>26</v>
@@ -3145,19 +3083,19 @@
         <v>27</v>
       </c>
       <c r="D46" s="27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E46" s="28">
-        <v>441.31</v>
+        <v>435.81</v>
       </c>
       <c r="F46" s="28">
-        <v>3089.19</v>
+        <v>871.62</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H46" s="27">
-        <v>3.08</v>
+        <v>0.87</v>
       </c>
       <c r="I46" s="27"/>
       <c r="J46" s="29">
@@ -3228,7 +3166,7 @@
     </row>
     <row r="47" spans="1:30" ht="13" customHeight="1">
       <c r="A47" s="25">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>26</v>
@@ -3237,19 +3175,19 @@
         <v>27</v>
       </c>
       <c r="D47" s="27">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E47" s="28">
-        <v>454.8</v>
+        <v>441.31</v>
       </c>
       <c r="F47" s="28">
-        <v>11370.03</v>
+        <v>3089.19</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H47" s="27">
-        <v>11.27</v>
+        <v>3.08</v>
       </c>
       <c r="I47" s="27"/>
       <c r="J47" s="29">
@@ -3329,19 +3267,19 @@
         <v>27</v>
       </c>
       <c r="D48" s="27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E48" s="28">
         <v>454.8</v>
       </c>
       <c r="F48" s="28">
-        <v>2274.02</v>
+        <v>11370.03</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H48" s="27">
-        <v>2.2599999999999998</v>
+        <v>11.27</v>
       </c>
       <c r="I48" s="27"/>
       <c r="J48" s="29">
@@ -3410,23 +3348,99 @@
       </c>
       <c r="AD48" s="36"/>
     </row>
-    <row r="49" spans="5:29" ht="13" customHeight="1">
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="1"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="37"/>
-    </row>
-    <row r="50" spans="5:29" ht="13" customHeight="1">
+    <row r="49" spans="1:30" ht="13" customHeight="1">
+      <c r="A49" s="25">
+        <v>45820</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="27">
+        <v>5</v>
+      </c>
+      <c r="E49" s="28">
+        <v>454.8</v>
+      </c>
+      <c r="F49" s="28">
+        <v>2274.02</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="27">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="29">
+        <f>Index!$C$2</f>
+        <v>338.15</v>
+      </c>
+      <c r="K49" s="30" t="e">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L49" s="31" t="e">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="31" t="e">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N49" s="32" t="e">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O49" s="30" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P49" s="31" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q49" s="31" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R49" s="31" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S49" s="33" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T49" s="34" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U49" s="34" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V49" s="34" t="e">
+        <f ca="1">IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="33" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="31" t="e">
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AD49" s="36"/>
+    </row>
+    <row r="50" spans="1:30" ht="13" customHeight="1">
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="38"/>
@@ -3442,7 +3456,7 @@
       <c r="AB50" s="37"/>
       <c r="AC50" s="37"/>
     </row>
-    <row r="51" spans="5:29" ht="13" customHeight="1">
+    <row r="51" spans="1:30" ht="13" customHeight="1">
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="38"/>
@@ -3458,7 +3472,7 @@
       <c r="AB51" s="37"/>
       <c r="AC51" s="37"/>
     </row>
-    <row r="52" spans="5:29" ht="13" customHeight="1">
+    <row r="52" spans="1:30" ht="13" customHeight="1">
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="38"/>
@@ -3474,7 +3488,7 @@
       <c r="AB52" s="37"/>
       <c r="AC52" s="37"/>
     </row>
-    <row r="53" spans="5:29" ht="13" customHeight="1">
+    <row r="53" spans="1:30" ht="13" customHeight="1">
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="38"/>
@@ -3490,7 +3504,7 @@
       <c r="AB53" s="37"/>
       <c r="AC53" s="37"/>
     </row>
-    <row r="54" spans="5:29" ht="13" customHeight="1">
+    <row r="54" spans="1:30" ht="13" customHeight="1">
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="38"/>
@@ -3506,7 +3520,7 @@
       <c r="AB54" s="37"/>
       <c r="AC54" s="37"/>
     </row>
-    <row r="55" spans="5:29" ht="13" customHeight="1">
+    <row r="55" spans="1:30" ht="13" customHeight="1">
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="38"/>
@@ -3522,7 +3536,7 @@
       <c r="AB55" s="37"/>
       <c r="AC55" s="37"/>
     </row>
-    <row r="56" spans="5:29" ht="13" customHeight="1">
+    <row r="56" spans="1:30" ht="13" customHeight="1">
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="38"/>
@@ -3538,7 +3552,7 @@
       <c r="AB56" s="37"/>
       <c r="AC56" s="37"/>
     </row>
-    <row r="57" spans="5:29" ht="13" customHeight="1">
+    <row r="57" spans="1:30" ht="13" customHeight="1">
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
       <c r="G57" s="38"/>
@@ -3554,7 +3568,7 @@
       <c r="AB57" s="37"/>
       <c r="AC57" s="37"/>
     </row>
-    <row r="58" spans="5:29" ht="13" customHeight="1">
+    <row r="58" spans="1:30" ht="13" customHeight="1">
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="38"/>
@@ -3570,7 +3584,7 @@
       <c r="AB58" s="37"/>
       <c r="AC58" s="37"/>
     </row>
-    <row r="59" spans="5:29" ht="13" customHeight="1">
+    <row r="59" spans="1:30" ht="13" customHeight="1">
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="38"/>
@@ -3586,7 +3600,7 @@
       <c r="AB59" s="37"/>
       <c r="AC59" s="37"/>
     </row>
-    <row r="60" spans="5:29" ht="13" customHeight="1">
+    <row r="60" spans="1:30" ht="13" customHeight="1">
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="38"/>
@@ -3602,7 +3616,7 @@
       <c r="AB60" s="37"/>
       <c r="AC60" s="37"/>
     </row>
-    <row r="61" spans="5:29" ht="13" customHeight="1">
+    <row r="61" spans="1:30" ht="13" customHeight="1">
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="38"/>
@@ -3618,7 +3632,7 @@
       <c r="AB61" s="37"/>
       <c r="AC61" s="37"/>
     </row>
-    <row r="62" spans="5:29" ht="13" customHeight="1">
+    <row r="62" spans="1:30" ht="13" customHeight="1">
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="38"/>
@@ -3634,7 +3648,7 @@
       <c r="AB62" s="37"/>
       <c r="AC62" s="37"/>
     </row>
-    <row r="63" spans="5:29" ht="13" customHeight="1">
+    <row r="63" spans="1:30" ht="13" customHeight="1">
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
       <c r="G63" s="38"/>
@@ -3650,7 +3664,7 @@
       <c r="AB63" s="37"/>
       <c r="AC63" s="37"/>
     </row>
-    <row r="64" spans="5:29" ht="13" customHeight="1">
+    <row r="64" spans="1:30" ht="13" customHeight="1">
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="38"/>
@@ -18194,7 +18208,7 @@
       <c r="AB972" s="37"/>
       <c r="AC972" s="37"/>
     </row>
-    <row r="973" spans="5:29" ht="13">
+    <row r="973" spans="5:29" ht="13" customHeight="1">
       <c r="E973" s="37"/>
       <c r="F973" s="37"/>
       <c r="G973" s="38"/>
@@ -18393,6 +18407,7 @@
       <c r="J985" s="37"/>
       <c r="K985" s="37"/>
       <c r="L985" s="37"/>
+      <c r="M985" s="1"/>
       <c r="W985" s="37"/>
       <c r="X985" s="37"/>
       <c r="Y985" s="37"/>
@@ -18641,6 +18656,21 @@
       <c r="AB1001" s="37"/>
       <c r="AC1001" s="37"/>
     </row>
+    <row r="1002" spans="5:29" ht="13">
+      <c r="E1002" s="37"/>
+      <c r="F1002" s="37"/>
+      <c r="G1002" s="38"/>
+      <c r="J1002" s="37"/>
+      <c r="K1002" s="37"/>
+      <c r="L1002" s="37"/>
+      <c r="W1002" s="37"/>
+      <c r="X1002" s="37"/>
+      <c r="Y1002" s="37"/>
+      <c r="Z1002" s="37"/>
+      <c r="AA1002" s="37"/>
+      <c r="AB1002" s="37"/>
+      <c r="AC1002" s="37"/>
+    </row>
   </sheetData>
   <autoFilter ref="A4:AO4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
@@ -18650,12 +18680,12 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:R3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B2 B4:B923">
+  <conditionalFormatting sqref="B1:B2 B4:B924">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="DIV">
       <formula>NOT(ISERROR(SEARCH(("DIV"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C923">
+  <conditionalFormatting sqref="C1:C924">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Buy">
       <formula>NOT(ISERROR(SEARCH(("Buy"),(C1))))</formula>
     </cfRule>
@@ -18900,7 +18930,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="45" t="e">
-        <f>SUM('Trading History'!$N$4:$N961)</f>
+        <f>SUM('Trading History'!$N$4:$N962)</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="42"/>
@@ -18908,7 +18938,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="45">
-        <f ca="1">IFERROR(SUM('Trading History'!$R$4:$R961), 0)</f>
+        <f ca="1">IFERROR(SUM('Trading History'!$R$4:$R962), 0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="42"/>
@@ -18916,7 +18946,7 @@
         <v>67</v>
       </c>
       <c r="I8" s="45" t="e">
-        <f ca="1">SUM('Trading History'!$V$4:$V961)</f>
+        <f ca="1">SUM('Trading History'!$V$4:$V962)</f>
         <v>#REF!</v>
       </c>
       <c r="J8" s="42"/>
@@ -18924,7 +18954,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="45">
-        <f>SUM('Trading History'!$AB$4:$AB961)</f>
+        <f>SUM('Trading History'!$AB$4:$AB962)</f>
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
@@ -18994,7 +19024,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="53" t="e">
-        <f>SUM('Trading History'!$L$4:$L961)</f>
+        <f>SUM('Trading History'!$L$4:$L962)</f>
         <v>#REF!</v>
       </c>
       <c r="D10" s="42"/>
@@ -19002,7 +19032,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="53" t="e">
-        <f ca="1">SUM('Trading History'!$P$4:$P961)</f>
+        <f ca="1">SUM('Trading History'!$P$4:$P962)</f>
         <v>#REF!</v>
       </c>
       <c r="G10" s="42"/>
@@ -19010,7 +19040,7 @@
         <v>72</v>
       </c>
       <c r="I10" s="53" t="e">
-        <f ca="1">SUM('Trading History'!$T$4:$T961)</f>
+        <f ca="1">SUM('Trading History'!$T$4:$T962)</f>
         <v>#REF!</v>
       </c>
       <c r="J10" s="42"/>
@@ -19018,7 +19048,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="53">
-        <f>SUM('Trading History'!$Z$4:$Z961)</f>
+        <f>SUM('Trading History'!$Z$4:$Z962)</f>
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
@@ -19088,7 +19118,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="53" t="e">
-        <f>SUM('Trading History'!$M$4:$M961)</f>
+        <f>SUM('Trading History'!$M$4:$M962)</f>
         <v>#REF!</v>
       </c>
       <c r="D12" s="42"/>
@@ -19096,7 +19126,7 @@
         <v>76</v>
       </c>
       <c r="F12" s="53" t="e">
-        <f ca="1">SUM('Trading History'!$Q$4:$Q961)</f>
+        <f ca="1">SUM('Trading History'!$Q$4:$Q962)</f>
         <v>#REF!</v>
       </c>
       <c r="G12" s="42"/>
@@ -19104,7 +19134,7 @@
         <v>77</v>
       </c>
       <c r="I12" s="53" t="e">
-        <f ca="1">SUM('Trading History'!$U$4:$U961)</f>
+        <f ca="1">SUM('Trading History'!$U$4:$U962)</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="42"/>
@@ -19112,7 +19142,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="53">
-        <f>SUM('Trading History'!$AA$4:$AA961)</f>
+        <f>SUM('Trading History'!$AA$4:$AA962)</f>
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -19144,7 +19174,7 @@
         <v>78</v>
       </c>
       <c r="L13" s="53" t="e">
-        <f>SUMIF('Trading History'!$B5:$B961,"DIV",'Trading History'!$AC$4:$AC961)</f>
+        <f>SUMIF('Trading History'!$B5:$B962,"DIV",'Trading History'!$AC$4:$AC962)</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -19170,7 +19200,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="D15" s="42"/>
@@ -19178,7 +19208,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A15)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A15)), 0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="42"/>
@@ -19186,7 +19216,7 @@
         <v>67</v>
       </c>
       <c r="I15" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="J15" s="42"/>
@@ -19194,7 +19224,7 @@
         <v>18</v>
       </c>
       <c r="L15" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
@@ -19264,7 +19294,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="D17" s="42"/>
@@ -19272,7 +19302,7 @@
         <v>71</v>
       </c>
       <c r="F17" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="G17" s="42"/>
@@ -19280,7 +19310,7 @@
         <v>72</v>
       </c>
       <c r="I17" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="J17" s="42"/>
@@ -19288,7 +19318,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
@@ -19358,7 +19388,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="D19" s="42"/>
@@ -19366,7 +19396,7 @@
         <v>76</v>
       </c>
       <c r="F19" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="G19" s="42"/>
@@ -19374,7 +19404,7 @@
         <v>77</v>
       </c>
       <c r="I19" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="J19" s="42"/>
@@ -19382,7 +19412,7 @@
         <v>17</v>
       </c>
       <c r="L19" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A15))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A15))</f>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -19435,7 +19465,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="D22" s="42"/>
@@ -19443,7 +19473,7 @@
         <v>66</v>
       </c>
       <c r="F22" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A22)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A22)), 0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="42"/>
@@ -19451,7 +19481,7 @@
         <v>67</v>
       </c>
       <c r="I22" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="J22" s="42"/>
@@ -19459,7 +19489,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -19529,7 +19559,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="D24" s="42"/>
@@ -19537,7 +19567,7 @@
         <v>71</v>
       </c>
       <c r="F24" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="G24" s="42"/>
@@ -19545,7 +19575,7 @@
         <v>72</v>
       </c>
       <c r="I24" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="J24" s="42"/>
@@ -19553,7 +19583,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="M24" s="1"/>
@@ -19623,7 +19653,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="D26" s="42"/>
@@ -19631,7 +19661,7 @@
         <v>76</v>
       </c>
       <c r="F26" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="G26" s="42"/>
@@ -19639,7 +19669,7 @@
         <v>77</v>
       </c>
       <c r="I26" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="J26" s="42"/>
@@ -19647,7 +19677,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A22))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A22))</f>
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
@@ -19726,7 +19756,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="D29" s="42"/>
@@ -19734,7 +19764,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A29)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A29)), 0)</f>
         <v>0</v>
       </c>
       <c r="G29" s="42"/>
@@ -19742,7 +19772,7 @@
         <v>67</v>
       </c>
       <c r="I29" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="J29" s="42"/>
@@ -19750,7 +19780,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="M29" s="1"/>
@@ -19820,7 +19850,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="D31" s="42"/>
@@ -19828,7 +19858,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="G31" s="42"/>
@@ -19836,7 +19866,7 @@
         <v>72</v>
       </c>
       <c r="I31" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="J31" s="42"/>
@@ -19844,7 +19874,7 @@
         <v>16</v>
       </c>
       <c r="L31" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="M31" s="1"/>
@@ -19914,7 +19944,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="D33" s="42"/>
@@ -19922,7 +19952,7 @@
         <v>76</v>
       </c>
       <c r="F33" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="G33" s="42"/>
@@ -19930,7 +19960,7 @@
         <v>77</v>
       </c>
       <c r="I33" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="J33" s="42"/>
@@ -19938,7 +19968,7 @@
         <v>17</v>
       </c>
       <c r="L33" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A29))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A29))</f>
         <v>0</v>
       </c>
       <c r="M33" s="1"/>
@@ -20017,7 +20047,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="D36" s="42"/>
@@ -20025,7 +20055,7 @@
         <v>66</v>
       </c>
       <c r="F36" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A36)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A36)), 0)</f>
         <v>0</v>
       </c>
       <c r="G36" s="42"/>
@@ -20033,7 +20063,7 @@
         <v>67</v>
       </c>
       <c r="I36" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="J36" s="42"/>
@@ -20041,7 +20071,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="M36" s="1"/>
@@ -20111,7 +20141,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="D38" s="42"/>
@@ -20119,7 +20149,7 @@
         <v>71</v>
       </c>
       <c r="F38" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="G38" s="42"/>
@@ -20127,7 +20157,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="J38" s="42"/>
@@ -20135,7 +20165,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="M38" s="1"/>
@@ -20205,7 +20235,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="D40" s="42"/>
@@ -20213,7 +20243,7 @@
         <v>76</v>
       </c>
       <c r="F40" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="G40" s="42"/>
@@ -20221,7 +20251,7 @@
         <v>77</v>
       </c>
       <c r="I40" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="J40" s="42"/>
@@ -20229,7 +20259,7 @@
         <v>17</v>
       </c>
       <c r="L40" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A36))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A36))</f>
         <v>0</v>
       </c>
       <c r="M40" s="1"/>
@@ -20308,7 +20338,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="D43" s="42"/>
@@ -20316,7 +20346,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A43)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A43)), 0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="42"/>
@@ -20324,7 +20354,7 @@
         <v>67</v>
       </c>
       <c r="I43" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="J43" s="42"/>
@@ -20332,7 +20362,7 @@
         <v>18</v>
       </c>
       <c r="L43" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="M43" s="1"/>
@@ -20402,7 +20432,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="D45" s="42"/>
@@ -20410,7 +20440,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="G45" s="42"/>
@@ -20418,7 +20448,7 @@
         <v>72</v>
       </c>
       <c r="I45" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="J45" s="42"/>
@@ -20426,7 +20456,7 @@
         <v>16</v>
       </c>
       <c r="L45" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="M45" s="1"/>
@@ -20496,7 +20526,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="D47" s="42"/>
@@ -20504,7 +20534,7 @@
         <v>76</v>
       </c>
       <c r="F47" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="G47" s="42"/>
@@ -20512,7 +20542,7 @@
         <v>77</v>
       </c>
       <c r="I47" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="J47" s="42"/>
@@ -20520,7 +20550,7 @@
         <v>17</v>
       </c>
       <c r="L47" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A43))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A43))</f>
         <v>0</v>
       </c>
       <c r="M47" s="1"/>
@@ -20599,7 +20629,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="D50" s="42"/>
@@ -20607,7 +20637,7 @@
         <v>66</v>
       </c>
       <c r="F50" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A50)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A50)), 0)</f>
         <v>0</v>
       </c>
       <c r="G50" s="42"/>
@@ -20615,7 +20645,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="J50" s="42"/>
@@ -20623,7 +20653,7 @@
         <v>18</v>
       </c>
       <c r="L50" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="M50" s="1"/>
@@ -20693,7 +20723,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="D52" s="42"/>
@@ -20701,7 +20731,7 @@
         <v>71</v>
       </c>
       <c r="F52" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="G52" s="42"/>
@@ -20709,7 +20739,7 @@
         <v>72</v>
       </c>
       <c r="I52" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="J52" s="42"/>
@@ -20717,7 +20747,7 @@
         <v>16</v>
       </c>
       <c r="L52" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="M52" s="1"/>
@@ -20787,7 +20817,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="D54" s="42"/>
@@ -20795,7 +20825,7 @@
         <v>76</v>
       </c>
       <c r="F54" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="G54" s="42"/>
@@ -20803,7 +20833,7 @@
         <v>77</v>
       </c>
       <c r="I54" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="J54" s="42"/>
@@ -20811,7 +20841,7 @@
         <v>17</v>
       </c>
       <c r="L54" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A50))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A50))</f>
         <v>0</v>
       </c>
       <c r="M54" s="1"/>
@@ -20890,7 +20920,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="D57" s="42"/>
@@ -20898,7 +20928,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A57)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A57)), 0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="42"/>
@@ -20906,7 +20936,7 @@
         <v>67</v>
       </c>
       <c r="I57" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="J57" s="42"/>
@@ -20914,7 +20944,7 @@
         <v>18</v>
       </c>
       <c r="L57" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="M57" s="1"/>
@@ -20984,7 +21014,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="D59" s="42"/>
@@ -20992,7 +21022,7 @@
         <v>71</v>
       </c>
       <c r="F59" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="G59" s="42"/>
@@ -21000,7 +21030,7 @@
         <v>72</v>
       </c>
       <c r="I59" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="J59" s="42"/>
@@ -21008,7 +21038,7 @@
         <v>16</v>
       </c>
       <c r="L59" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="M59" s="1"/>
@@ -21078,7 +21108,7 @@
         <v>17</v>
       </c>
       <c r="C61" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="D61" s="42"/>
@@ -21086,7 +21116,7 @@
         <v>76</v>
       </c>
       <c r="F61" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="G61" s="42"/>
@@ -21094,7 +21124,7 @@
         <v>77</v>
       </c>
       <c r="I61" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="J61" s="42"/>
@@ -21102,7 +21132,7 @@
         <v>17</v>
       </c>
       <c r="L61" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A57))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A57))</f>
         <v>0</v>
       </c>
       <c r="M61" s="1"/>
@@ -21181,7 +21211,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="D64" s="42"/>
@@ -21189,7 +21219,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A64)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A64)), 0)</f>
         <v>0</v>
       </c>
       <c r="G64" s="42"/>
@@ -21197,7 +21227,7 @@
         <v>67</v>
       </c>
       <c r="I64" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="J64" s="42"/>
@@ -21205,7 +21235,7 @@
         <v>18</v>
       </c>
       <c r="L64" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="M64" s="1"/>
@@ -21275,7 +21305,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="D66" s="42"/>
@@ -21283,7 +21313,7 @@
         <v>71</v>
       </c>
       <c r="F66" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="G66" s="42"/>
@@ -21291,7 +21321,7 @@
         <v>72</v>
       </c>
       <c r="I66" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="J66" s="42"/>
@@ -21299,7 +21329,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="M66" s="1"/>
@@ -21369,7 +21399,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="D68" s="42"/>
@@ -21377,7 +21407,7 @@
         <v>76</v>
       </c>
       <c r="F68" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="G68" s="42"/>
@@ -21385,7 +21415,7 @@
         <v>77</v>
       </c>
       <c r="I68" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="J68" s="42"/>
@@ -21393,7 +21423,7 @@
         <v>17</v>
       </c>
       <c r="L68" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A64))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A64))</f>
         <v>0</v>
       </c>
       <c r="M68" s="1"/>
@@ -21472,7 +21502,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="D71" s="42"/>
@@ -21480,7 +21510,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A71)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A71)), 0)</f>
         <v>0</v>
       </c>
       <c r="G71" s="42"/>
@@ -21488,7 +21518,7 @@
         <v>67</v>
       </c>
       <c r="I71" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="J71" s="42"/>
@@ -21496,7 +21526,7 @@
         <v>18</v>
       </c>
       <c r="L71" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="M71" s="1"/>
@@ -21566,7 +21596,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="D73" s="42"/>
@@ -21574,7 +21604,7 @@
         <v>71</v>
       </c>
       <c r="F73" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="G73" s="42"/>
@@ -21582,7 +21612,7 @@
         <v>72</v>
       </c>
       <c r="I73" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="J73" s="42"/>
@@ -21590,7 +21620,7 @@
         <v>16</v>
       </c>
       <c r="L73" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="M73" s="1"/>
@@ -21660,7 +21690,7 @@
         <v>17</v>
       </c>
       <c r="C75" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="D75" s="42"/>
@@ -21668,7 +21698,7 @@
         <v>76</v>
       </c>
       <c r="F75" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="G75" s="42"/>
@@ -21676,7 +21706,7 @@
         <v>77</v>
       </c>
       <c r="I75" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="J75" s="42"/>
@@ -21684,7 +21714,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A71))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A71))</f>
         <v>0</v>
       </c>
       <c r="M75" s="1"/>
@@ -21763,7 +21793,7 @@
         <v>18</v>
       </c>
       <c r="C78" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="D78" s="42"/>
@@ -21771,7 +21801,7 @@
         <v>66</v>
       </c>
       <c r="F78" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A78)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A78)), 0)</f>
         <v>0</v>
       </c>
       <c r="G78" s="42"/>
@@ -21779,7 +21809,7 @@
         <v>67</v>
       </c>
       <c r="I78" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="J78" s="42"/>
@@ -21787,7 +21817,7 @@
         <v>18</v>
       </c>
       <c r="L78" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="M78" s="1"/>
@@ -21857,7 +21887,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="D80" s="42"/>
@@ -21865,7 +21895,7 @@
         <v>71</v>
       </c>
       <c r="F80" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="G80" s="42"/>
@@ -21873,7 +21903,7 @@
         <v>72</v>
       </c>
       <c r="I80" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="J80" s="42"/>
@@ -21881,7 +21911,7 @@
         <v>16</v>
       </c>
       <c r="L80" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="M80" s="1"/>
@@ -21951,7 +21981,7 @@
         <v>17</v>
       </c>
       <c r="C82" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="D82" s="42"/>
@@ -21959,7 +21989,7 @@
         <v>76</v>
       </c>
       <c r="F82" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="G82" s="42"/>
@@ -21967,7 +21997,7 @@
         <v>77</v>
       </c>
       <c r="I82" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="J82" s="42"/>
@@ -21975,7 +22005,7 @@
         <v>17</v>
       </c>
       <c r="L82" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A78))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A78))</f>
         <v>0</v>
       </c>
       <c r="M82" s="1"/>
@@ -22054,7 +22084,7 @@
         <v>18</v>
       </c>
       <c r="C85" s="45">
-        <f ca="1">SUMIFS('Trading History'!$N$4:$N961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$N$4:$N962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="D85" s="42"/>
@@ -22062,7 +22092,7 @@
         <v>66</v>
       </c>
       <c r="F85" s="45">
-        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A85)), 0)</f>
+        <f ca="1">IFERROR(SUMIFS('Trading History'!$R$4:$R962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A85)), 0)</f>
         <v>0</v>
       </c>
       <c r="G85" s="42"/>
@@ -22070,7 +22100,7 @@
         <v>67</v>
       </c>
       <c r="I85" s="45">
-        <f ca="1">SUMIFS('Trading History'!$V$4:$V961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$V$4:$V962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="J85" s="42"/>
@@ -22078,7 +22108,7 @@
         <v>18</v>
       </c>
       <c r="L85" s="45">
-        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$AB$4:$AB962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="M85" s="1"/>
@@ -22148,7 +22178,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="53">
-        <f ca="1">SUMIFS('Trading History'!$L$4:$L961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$L$4:$L962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="D87" s="42"/>
@@ -22156,7 +22186,7 @@
         <v>71</v>
       </c>
       <c r="F87" s="53">
-        <f ca="1">SUMIFS('Trading History'!$P$4:$P961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$P$4:$P962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="G87" s="42"/>
@@ -22164,7 +22194,7 @@
         <v>72</v>
       </c>
       <c r="I87" s="53">
-        <f ca="1">SUMIFS('Trading History'!$T$4:$T961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$T$4:$T962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="J87" s="42"/>
@@ -22172,7 +22202,7 @@
         <v>16</v>
       </c>
       <c r="L87" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$Z$4:$Z962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="M87" s="1"/>
@@ -22242,7 +22272,7 @@
         <v>17</v>
       </c>
       <c r="C89" s="53">
-        <f ca="1">SUMIFS('Trading History'!$M$4:$M961, 'Trading History'!$K$4:$K961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$M$4:$M962, 'Trading History'!$K$4:$K962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="D89" s="42"/>
@@ -22250,7 +22280,7 @@
         <v>76</v>
       </c>
       <c r="F89" s="53">
-        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q961, 'Trading History'!$O$4:$O961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$Q$4:$Q962, 'Trading History'!$O$4:$O962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="G89" s="42"/>
@@ -22258,7 +22288,7 @@
         <v>77</v>
       </c>
       <c r="I89" s="53">
-        <f ca="1">SUMIFS('Trading History'!$U$4:$U961, 'Trading History'!$S$4:$S961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$U$4:$U962, 'Trading History'!$S$4:$S962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="J89" s="42"/>
@@ -22266,7 +22296,7 @@
         <v>17</v>
       </c>
       <c r="L89" s="53">
-        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA961, 'Trading History'!$Y$4:$Y961, _xludf.CONCAT("&gt;", $A85))</f>
+        <f ca="1">SUMIFS('Trading History'!$AA$4:$AA962, 'Trading History'!$Y$4:$Y962, _xludf.CONCAT("&gt;", $A85))</f>
         <v>0</v>
       </c>
       <c r="M89" s="1"/>

--- a/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
+++ b/dumps/Stocks/Afcons Infrastructure Ltd.xlsx
@@ -702,7 +702,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1002"/>
+  <dimension ref="A1:AP1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="57">
       <c r="A5" s="68" t="n">
-        <v>46062</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1068,18 +1068,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>335.7</v>
+        <v>328.15</v>
       </c>
       <c r="F5" t="n">
-        <v>3373.8</v>
+        <v>3304.65</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>3.3015</v>
+      </c>
       <c r="I5" t="n">
-        <v>16.8</v>
+        <v>19.8493</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1087,8 +1090,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="57">
-      <c r="A6" s="55" t="n">
-        <v>46063</v>
+      <c r="A6" s="68" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1104,18 +1107,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>349.6</v>
+        <v>335.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3513.5</v>
+        <v>3373.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17.5</v>
+        <v>16.8</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="57">
       <c r="A7" s="55" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1140,18 +1143,18 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>333.4</v>
+        <v>349.6</v>
       </c>
       <c r="F7" t="n">
-        <v>3350.7</v>
+        <v>3513.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="57">
       <c r="A8" s="55" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1176,18 +1179,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>339.9</v>
+        <v>333.4</v>
       </c>
       <c r="F8" t="n">
-        <v>3416</v>
+        <v>3350.7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="57">
       <c r="A9" s="55" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1212,14 +1215,14 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>339.1</v>
+        <v>339.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3408</v>
+        <v>3416</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1232,7 +1235,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" s="57">
       <c r="A10" s="55" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1248,18 +1251,18 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>337.8</v>
+        <v>339.1</v>
       </c>
       <c r="F10" t="n">
-        <v>3394.9</v>
+        <v>3408</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1" s="57">
       <c r="A11" s="55" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1281,21 +1284,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>356.85</v>
+        <v>337.8</v>
       </c>
       <c r="F11" t="n">
-        <v>7172.6</v>
+        <v>3394.9</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>35.6</v>
+        <v>16.9</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -1304,7 +1307,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" s="57">
       <c r="A12" s="55" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1317,21 +1320,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>379.65</v>
+        <v>356.85</v>
       </c>
       <c r="F12" t="n">
-        <v>3815.5</v>
+        <v>7172.6</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>35.6</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" s="57">
       <c r="A13" s="55" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1356,18 +1359,18 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6</v>
+        <v>379.65</v>
       </c>
       <c r="F13" t="n">
-        <v>3905.4</v>
+        <v>3815.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" s="57">
       <c r="A14" s="55" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1392,18 +1395,18 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>391.25</v>
+        <v>388.6</v>
       </c>
       <c r="F14" t="n">
-        <v>3932.1</v>
+        <v>3905.4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252610092927</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" s="57">
       <c r="A15" s="55" t="n">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1428,18 +1431,18 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>390</v>
+        <v>391.25</v>
       </c>
       <c r="F15" t="n">
-        <v>3919.5</v>
+        <v>3932.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252610092927</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" s="57">
       <c r="A16" s="55" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1464,18 +1467,18 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>385.8</v>
+        <v>390</v>
       </c>
       <c r="F16" t="n">
-        <v>3877.3</v>
+        <v>3919.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="J16">
         <f>Index!$C$2</f>
@@ -1484,7 +1487,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" s="57">
       <c r="A17" s="55" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1497,21 +1500,21 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>390.7</v>
+        <v>385.8</v>
       </c>
       <c r="F17" t="n">
-        <v>7853</v>
+        <v>3877.3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>19.3</v>
       </c>
       <c r="J17">
         <f>Index!$C$2</f>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" s="57">
       <c r="A18" s="55" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1533,21 +1536,21 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>386.65</v>
+        <v>390.7</v>
       </c>
       <c r="F18" t="n">
-        <v>3885.8</v>
+        <v>7853</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>19.3</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <f>Index!$C$2</f>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" s="57">
       <c r="A19" s="55" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1572,18 +1575,18 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>382</v>
+        <v>386.65</v>
       </c>
       <c r="F19" t="n">
-        <v>3839.1</v>
+        <v>3885.8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="J19">
         <f>Index!$C$2</f>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" s="57">
       <c r="A20" s="55" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1608,18 +1611,18 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F20" t="n">
-        <v>3849.2</v>
+        <v>3839.1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="J20">
         <f>Index!$C$2</f>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" s="57">
       <c r="A21" s="55" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1644,18 +1647,18 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>396.15</v>
+        <v>383</v>
       </c>
       <c r="F21" t="n">
-        <v>3981.3</v>
+        <v>3849.2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="J21">
         <f>Index!$C$2</f>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" s="57">
       <c r="A22" s="55" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1677,21 +1680,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>396.45</v>
+        <v>396.15</v>
       </c>
       <c r="F22" t="n">
-        <v>7968.6</v>
+        <v>3981.3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>39.6</v>
+        <v>19.8</v>
       </c>
       <c r="J22">
         <f>Index!$C$2</f>
@@ -1700,11 +1703,11 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" s="57">
       <c r="A23" s="55" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1713,21 +1716,21 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>399.05</v>
+        <v>396.45</v>
       </c>
       <c r="F23" t="n">
-        <v>4010.5</v>
+        <v>7968.6</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>39.6</v>
       </c>
       <c r="J23">
         <f>Index!$C$2</f>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" s="57">
       <c r="A24" s="55" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1752,18 +1755,18 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>411.5</v>
+        <v>399.05</v>
       </c>
       <c r="F24" t="n">
-        <v>4135.6</v>
+        <v>4010.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <f>Index!$C$2</f>
@@ -1772,11 +1775,11 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" s="57">
       <c r="A25" s="55" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1788,18 +1791,18 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>402.295</v>
+        <v>411.5</v>
       </c>
       <c r="F25" t="n">
-        <v>4043.05</v>
+        <v>4135.6</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>20.1</v>
+        <v>20.6</v>
       </c>
       <c r="J25">
         <f>Index!$C$2</f>
@@ -1808,7 +1811,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" s="57">
       <c r="A26" s="55" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1824,18 +1827,18 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>405.75</v>
+        <v>402.295</v>
       </c>
       <c r="F26" t="n">
-        <v>4077.8</v>
+        <v>4043.05</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CN#252608703866</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="J26">
         <f>Index!$C$2</f>
@@ -1844,11 +1847,11 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" s="57">
       <c r="A27" s="55" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1857,21 +1860,21 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>395.7</v>
+        <v>405.75</v>
       </c>
       <c r="F27" t="n">
-        <v>7953.6</v>
+        <v>4077.8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608703866</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>39.6</v>
+        <v>20.3</v>
       </c>
       <c r="J27">
         <f>Index!$C$2</f>
@@ -1880,11 +1883,11 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" s="57">
       <c r="A28" s="55" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1896,18 +1899,18 @@
         <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>400.85</v>
+        <v>395.7</v>
       </c>
       <c r="F28" t="n">
-        <v>8057</v>
+        <v>7953.6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="J28">
         <f>Index!$C$2</f>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" s="57">
       <c r="A29" s="55" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1932,18 +1935,18 @@
         <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>408</v>
+        <v>400.85</v>
       </c>
       <c r="F29" t="n">
-        <v>8200.799999999999</v>
+        <v>8057</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>40.8</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <f>Index!$C$2</f>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" s="57">
       <c r="A30" s="55" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1965,21 +1968,21 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>408.1</v>
+        <v>408</v>
       </c>
       <c r="F30" t="n">
-        <v>4101.4</v>
+        <v>8200.799999999999</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>20.4</v>
+        <v>40.8</v>
       </c>
       <c r="J30">
         <f>Index!$C$2</f>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" s="57">
       <c r="A31" s="55" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2001,21 +2004,21 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>410.45</v>
+        <v>408.1</v>
       </c>
       <c r="F31" t="n">
-        <v>8250</v>
+        <v>4101.4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>41</v>
+        <v>20.4</v>
       </c>
       <c r="J31">
         <f>Index!$C$2</f>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1" s="57">
       <c r="A32" s="55" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2037,21 +2040,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>414.85</v>
+        <v>410.45</v>
       </c>
       <c r="F32" t="n">
-        <v>4169.2</v>
+        <v>8250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>20.7</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <f>Index!$C$2</f>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1" s="57">
       <c r="A33" s="55" t="n">
-        <v>45959</v>
+        <v>45972</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2076,18 +2079,18 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>454.75</v>
+        <v>414.85</v>
       </c>
       <c r="F33" t="n">
-        <v>4570.2</v>
+        <v>4169.2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>22.7</v>
+        <v>20.7</v>
       </c>
       <c r="J33">
         <f>Index!$C$2</f>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" s="57">
       <c r="A34" s="55" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2112,121 +2115,59 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
+        <v>454.75</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4570.2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="J34">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" s="57">
+      <c r="A35" s="55" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
         <v>440.65</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F35" t="n">
         <v>4428.5</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>22</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" s="57">
-      <c r="A35" s="25" t="n">
-        <v>45954</v>
-      </c>
-      <c r="B35" s="26" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C35" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="28" t="n">
-        <v>447.4</v>
-      </c>
-      <c r="F35" s="28">
-        <f>D7*E7</f>
-        <v/>
-      </c>
-      <c r="G35" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H35" s="27" t="n"/>
-      <c r="I35" s="27" t="n"/>
-      <c r="J35" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K35" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S35" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U35" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="34" t="n"/>
-      <c r="X35" s="34" t="n"/>
-      <c r="Y35" s="33">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="34" t="n"/>
-      <c r="AA35" s="34" t="n"/>
-      <c r="AB35" s="35" t="n"/>
-      <c r="AC35" s="31">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="36" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="57">
       <c r="A36" s="25" t="n">
@@ -2243,13 +2184,13 @@
         </is>
       </c>
       <c r="D36" s="27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E36" s="28" t="n">
-        <v>447.35</v>
+        <v>447.4</v>
       </c>
       <c r="F36" s="28">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G36" s="26" t="inlineStr">
@@ -2264,71 +2205,71 @@
         <v/>
       </c>
       <c r="K36" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L36" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M36" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N36" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O36" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P36" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R36" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S36" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T36" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U36" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V36" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W36" s="34" t="n"/>
       <c r="X36" s="34" t="n"/>
       <c r="Y36" s="33">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z36" s="34" t="n"/>
       <c r="AA36" s="34" t="n"/>
       <c r="AB36" s="35" t="n"/>
       <c r="AC36" s="31">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD36" s="36" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="57">
       <c r="A37" s="25" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B37" s="26" t="inlineStr">
         <is>
@@ -2341,13 +2282,13 @@
         </is>
       </c>
       <c r="D37" s="27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37" s="28" t="n">
         <v>447.35</v>
       </c>
       <c r="F37" s="28">
-        <f>D9*E9</f>
+        <f>D8*E8</f>
         <v/>
       </c>
       <c r="G37" s="26" t="inlineStr">
@@ -2362,71 +2303,71 @@
         <v/>
       </c>
       <c r="K37" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L37" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M37" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N37" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O37" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P37" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R37" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S37" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T37" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U37" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V37" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W37" s="34" t="n"/>
       <c r="X37" s="34" t="n"/>
       <c r="Y37" s="33">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z37" s="34" t="n"/>
       <c r="AA37" s="34" t="n"/>
       <c r="AB37" s="35" t="n"/>
       <c r="AC37" s="31">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD37" s="36" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="57">
       <c r="A38" s="25" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B38" s="26" t="inlineStr">
         <is>
@@ -2439,13 +2380,13 @@
         </is>
       </c>
       <c r="D38" s="27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="28" t="n">
-        <v>455.15</v>
+        <v>447.35</v>
       </c>
       <c r="F38" s="28">
-        <f>D10*E10</f>
+        <f>D9*E9</f>
         <v/>
       </c>
       <c r="G38" s="26" t="inlineStr">
@@ -2460,75 +2401,75 @@
         <v/>
       </c>
       <c r="K38" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L38" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M38" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N38" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O38" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P38" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R38" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S38" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T38" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U38" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V38" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W38" s="34" t="n"/>
       <c r="X38" s="34" t="n"/>
       <c r="Y38" s="33">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z38" s="34" t="n"/>
       <c r="AA38" s="34" t="n"/>
       <c r="AB38" s="35" t="n"/>
       <c r="AC38" s="31">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD38" s="36" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="57">
       <c r="A39" s="25" t="n">
-        <v>45856</v>
+        <v>45947</v>
       </c>
       <c r="B39" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C39" s="26" t="inlineStr">
@@ -2537,88 +2478,85 @@
         </is>
       </c>
       <c r="D39" s="27" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E39" s="28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F39" s="28" t="n">
-        <v>50</v>
+        <v>455.15</v>
+      </c>
+      <c r="F39" s="28">
+        <f>D10*E10</f>
+        <v/>
       </c>
       <c r="G39" s="26" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H39" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
       <c r="J39" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L39" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M39" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N39" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O39" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P39" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R39" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S39" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T39" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U39" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V39" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W39" s="34" t="n"/>
       <c r="X39" s="34" t="n"/>
       <c r="Y39" s="33">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z39" s="34" t="n"/>
       <c r="AA39" s="34" t="n"/>
       <c r="AB39" s="35" t="n"/>
       <c r="AC39" s="31">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD39" s="36" t="n"/>
@@ -2638,13 +2576,13 @@
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="E40" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="F40" s="28" t="n">
-        <v>267.5</v>
+        <v>50</v>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
@@ -2662,75 +2600,75 @@
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S40" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T40" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U40" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V40" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W40" s="34" t="n"/>
       <c r="X40" s="34" t="n"/>
       <c r="Y40" s="33">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z40" s="34" t="n"/>
       <c r="AA40" s="34" t="n"/>
       <c r="AB40" s="35" t="n"/>
       <c r="AC40" s="31">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD40" s="36" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="57">
       <c r="A41" s="25" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B41" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C41" s="26" t="inlineStr">
@@ -2739,97 +2677,99 @@
         </is>
       </c>
       <c r="D41" s="27" t="n">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E41" s="28" t="n">
-        <v>422.53</v>
+        <v>2.5</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>8450.59</v>
+        <v>267.5</v>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.2.5000/- per share on Ex-Date: 18-JUL-2025</t>
         </is>
       </c>
       <c r="H41" s="27" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="I41" s="27" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S41" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T41" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U41" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V41" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W41" s="34" t="n"/>
       <c r="X41" s="34" t="n"/>
       <c r="Y41" s="33">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z41" s="34" t="n"/>
       <c r="AA41" s="34" t="n"/>
       <c r="AB41" s="35" t="n"/>
       <c r="AC41" s="31">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD41" s="36" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="57">
       <c r="A42" s="25" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B42" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C42" s="26" t="inlineStr">
@@ -2838,13 +2778,13 @@
         </is>
       </c>
       <c r="D42" s="27" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="28" t="n">
-        <v>424.44</v>
+        <v>422.53</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>16128.6</v>
+        <v>8450.59</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
@@ -2852,7 +2792,7 @@
         </is>
       </c>
       <c r="H42" s="27" t="n">
-        <v>15.98</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I42" s="27" t="n"/>
       <c r="J42" s="29">
@@ -2860,64 +2800,64 @@
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S42" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T42" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U42" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V42" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W42" s="34" t="n"/>
       <c r="X42" s="34" t="n"/>
       <c r="Y42" s="33">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z42" s="34" t="n"/>
       <c r="AA42" s="34" t="n"/>
       <c r="AB42" s="35" t="n"/>
       <c r="AC42" s="31">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD42" s="36" t="n"/>
@@ -2937,13 +2877,13 @@
         </is>
       </c>
       <c r="D43" s="27" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E43" s="28" t="n">
         <v>424.44</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>848.88</v>
+        <v>16128.6</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
@@ -2951,7 +2891,7 @@
         </is>
       </c>
       <c r="H43" s="27" t="n">
-        <v>0.84</v>
+        <v>15.98</v>
       </c>
       <c r="I43" s="27" t="n"/>
       <c r="J43" s="29">
@@ -2959,71 +2899,71 @@
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S43" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T43" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U43" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V43" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W43" s="34" t="n"/>
       <c r="X43" s="34" t="n"/>
       <c r="Y43" s="33">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z43" s="34" t="n"/>
       <c r="AA43" s="34" t="n"/>
       <c r="AB43" s="35" t="n"/>
       <c r="AC43" s="31">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD43" s="36" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="57">
       <c r="A44" s="25" t="n">
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="B44" s="26" t="inlineStr">
         <is>
@@ -3036,13 +2976,13 @@
         </is>
       </c>
       <c r="D44" s="27" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>435.86</v>
+        <v>424.44</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>11332.31</v>
+        <v>848.88</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
@@ -3050,7 +2990,7 @@
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>11.23</v>
+        <v>0.84</v>
       </c>
       <c r="I44" s="27" t="n"/>
       <c r="J44" s="29">
@@ -3058,64 +2998,64 @@
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S44" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T44" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U44" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V44" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W44" s="34" t="n"/>
       <c r="X44" s="34" t="n"/>
       <c r="Y44" s="33">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z44" s="34" t="n"/>
       <c r="AA44" s="34" t="n"/>
       <c r="AB44" s="35" t="n"/>
       <c r="AC44" s="31">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD44" s="36" t="n"/>
@@ -3135,13 +3075,13 @@
         </is>
       </c>
       <c r="D45" s="27" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>435.81</v>
+        <v>435.86</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>871.62</v>
+        <v>11332.31</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -3149,7 +3089,7 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>0.87</v>
+        <v>11.23</v>
       </c>
       <c r="I45" s="27" t="n"/>
       <c r="J45" s="29">
@@ -3157,64 +3097,64 @@
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S45" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T45" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U45" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V45" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W45" s="34" t="n"/>
       <c r="X45" s="34" t="n"/>
       <c r="Y45" s="33">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z45" s="34" t="n"/>
       <c r="AA45" s="34" t="n"/>
       <c r="AB45" s="35" t="n"/>
       <c r="AC45" s="31">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD45" s="36" t="n"/>
@@ -3256,71 +3196,71 @@
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S46" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T46" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U46" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V46" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W46" s="34" t="n"/>
       <c r="X46" s="34" t="n"/>
       <c r="Y46" s="33">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z46" s="34" t="n"/>
       <c r="AA46" s="34" t="n"/>
       <c r="AB46" s="35" t="n"/>
       <c r="AC46" s="31">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD46" s="36" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="57">
       <c r="A47" s="25" t="n">
-        <v>45821</v>
+        <v>45842</v>
       </c>
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -3333,13 +3273,13 @@
         </is>
       </c>
       <c r="D47" s="27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E47" s="28" t="n">
-        <v>441.31</v>
+        <v>435.81</v>
       </c>
       <c r="F47" s="28" t="n">
-        <v>3089.19</v>
+        <v>871.62</v>
       </c>
       <c r="G47" s="26" t="inlineStr">
         <is>
@@ -3347,7 +3287,7 @@
         </is>
       </c>
       <c r="H47" s="27" t="n">
-        <v>3.08</v>
+        <v>0.87</v>
       </c>
       <c r="I47" s="27" t="n"/>
       <c r="J47" s="29">
@@ -3355,71 +3295,71 @@
         <v/>
       </c>
       <c r="K47" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L47" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M47" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N47" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O47" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P47" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R47" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S47" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T47" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U47" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V47" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W47" s="34" t="n"/>
       <c r="X47" s="34" t="n"/>
       <c r="Y47" s="33">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z47" s="34" t="n"/>
       <c r="AA47" s="34" t="n"/>
       <c r="AB47" s="35" t="n"/>
       <c r="AC47" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD47" s="36" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="57">
       <c r="A48" s="25" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B48" s="26" t="inlineStr">
         <is>
@@ -3432,13 +3372,13 @@
         </is>
       </c>
       <c r="D48" s="27" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E48" s="28" t="n">
-        <v>454.8</v>
+        <v>441.31</v>
       </c>
       <c r="F48" s="28" t="n">
-        <v>11370.03</v>
+        <v>3089.19</v>
       </c>
       <c r="G48" s="26" t="inlineStr">
         <is>
@@ -3446,7 +3386,7 @@
         </is>
       </c>
       <c r="H48" s="27" t="n">
-        <v>11.27</v>
+        <v>3.08</v>
       </c>
       <c r="I48" s="27" t="n"/>
       <c r="J48" s="29">
@@ -3454,64 +3394,64 @@
         <v/>
       </c>
       <c r="K48" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L48" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M48" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N48" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O48" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P48" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R48" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S48" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T48" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U48" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V48" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W48" s="34" t="n"/>
       <c r="X48" s="34" t="n"/>
       <c r="Y48" s="33">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z48" s="34" t="n"/>
       <c r="AA48" s="34" t="n"/>
       <c r="AB48" s="35" t="n"/>
       <c r="AC48" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD48" s="36" t="n"/>
@@ -3531,13 +3471,13 @@
         </is>
       </c>
       <c r="D49" s="27" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E49" s="28" t="n">
         <v>454.8</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>2274.02</v>
+        <v>11370.03</v>
       </c>
       <c r="G49" s="26" t="inlineStr">
         <is>
@@ -3545,7 +3485,7 @@
         </is>
       </c>
       <c r="H49" s="27" t="n">
-        <v>2.26</v>
+        <v>11.27</v>
       </c>
       <c r="I49" s="27" t="n"/>
       <c r="J49" s="29">
@@ -3553,83 +3493,166 @@
         <v/>
       </c>
       <c r="K49" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L49" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M49" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N49" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O49" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P49" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R49" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S49" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T49" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U49" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V49" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W49" s="34" t="n"/>
       <c r="X49" s="34" t="n"/>
       <c r="Y49" s="33">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z49" s="34" t="n"/>
       <c r="AA49" s="34" t="n"/>
       <c r="AB49" s="35" t="n"/>
       <c r="AC49" s="31">
+        <f>IF(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD49" s="36" t="n"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" s="57">
+      <c r="A50" s="25" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B50" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C50" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D50" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" s="28" t="n">
+        <v>454.8</v>
+      </c>
+      <c r="F50" s="28" t="n">
+        <v>2274.02</v>
+      </c>
+      <c r="G50" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H50" s="27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K50" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="L50" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="M50" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <v/>
+      </c>
+      <c r="N50" s="32">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O50" s="30">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="P50" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="Q50" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <v/>
+      </c>
+      <c r="R50" s="31">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="S50" s="33">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="T50" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <v/>
+      </c>
+      <c r="U50" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <v/>
+      </c>
+      <c r="V50" s="34">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <v/>
+      </c>
+      <c r="W50" s="34" t="n"/>
+      <c r="X50" s="34" t="n"/>
+      <c r="Y50" s="33">
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z50" s="34" t="n"/>
+      <c r="AA50" s="34" t="n"/>
+      <c r="AB50" s="35" t="n"/>
+      <c r="AC50" s="31">
         <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
-      <c r="AD49" s="36" t="n"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" s="57">
-      <c r="E50" s="37" t="n"/>
-      <c r="F50" s="37" t="n"/>
-      <c r="G50" s="38" t="n"/>
-      <c r="J50" s="37" t="n"/>
-      <c r="K50" s="37" t="n"/>
-      <c r="L50" s="37" t="n"/>
-      <c r="M50" s="1" t="n"/>
-      <c r="W50" s="37" t="n"/>
-      <c r="X50" s="37" t="n"/>
-      <c r="Y50" s="37" t="n"/>
-      <c r="Z50" s="37" t="n"/>
-      <c r="AA50" s="37" t="n"/>
-      <c r="AB50" s="37" t="n"/>
-      <c r="AC50" s="37" t="n"/>
+      <c r="AD50" s="36" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="57">
       <c r="E51" s="37" t="n"/>
@@ -18598,6 +18621,7 @@
       <c r="J986" s="37" t="n"/>
       <c r="K986" s="37" t="n"/>
       <c r="L986" s="37" t="n"/>
+      <c r="M986" s="1" t="n"/>
       <c r="W986" s="37" t="n"/>
       <c r="X986" s="37" t="n"/>
       <c r="Y986" s="37" t="n"/>
@@ -18845,6 +18869,21 @@
       <c r="AA1002" s="37" t="n"/>
       <c r="AB1002" s="37" t="n"/>
       <c r="AC1002" s="37" t="n"/>
+    </row>
+    <row r="1003">
+      <c r="E1003" s="37" t="n"/>
+      <c r="F1003" s="37" t="n"/>
+      <c r="G1003" s="38" t="n"/>
+      <c r="J1003" s="37" t="n"/>
+      <c r="K1003" s="37" t="n"/>
+      <c r="L1003" s="37" t="n"/>
+      <c r="W1003" s="37" t="n"/>
+      <c r="X1003" s="37" t="n"/>
+      <c r="Y1003" s="37" t="n"/>
+      <c r="Z1003" s="37" t="n"/>
+      <c r="AA1003" s="37" t="n"/>
+      <c r="AB1003" s="37" t="n"/>
+      <c r="AC1003" s="37" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO49"/>
